--- a/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9995825351295931</v>
+      </c>
+      <c r="D3">
+        <v>1.000519291939382</v>
+      </c>
+      <c r="E3">
         <v>1.000178242900643</v>
       </c>
-      <c r="D3">
-        <v>0.9992474495261399</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1.000189147132662</v>
+      </c>
+      <c r="G3">
+        <v>0.9992474495261396</v>
+      </c>
+      <c r="H3">
         <v>1.000193635630451</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9992474495261396</v>
+      </c>
+      <c r="J3">
         <v>1.000178242900643</v>
-      </c>
-      <c r="G3">
-        <v>1.000519291939382</v>
-      </c>
-      <c r="H3">
-        <v>0.9995825351295931</v>
-      </c>
-      <c r="I3">
-        <v>1.000189147132662</v>
-      </c>
-      <c r="J3">
-        <v>0.9992474495261399</v>
       </c>
       <c r="K3">
         <v>1.000178242900643</v>
@@ -704,19 +656,19 @@
         <v>1.000193635630451</v>
       </c>
       <c r="M3">
-        <v>0.9997205425782955</v>
+        <v>0.9997205425782953</v>
       </c>
       <c r="N3">
-        <v>0.9997205425782955</v>
+        <v>0.9997205425782953</v>
       </c>
       <c r="O3">
-        <v>0.9996745400953947</v>
+        <v>0.9996745400953945</v>
       </c>
       <c r="P3">
-        <v>0.9998731093524111</v>
+        <v>0.999873109352411</v>
       </c>
       <c r="Q3">
-        <v>0.9998731093524111</v>
+        <v>0.999873109352411</v>
       </c>
       <c r="R3">
         <v>0.9999493927394689</v>
@@ -728,7 +680,7 @@
         <v>0.9999850503764783</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9991940996657495</v>
+      </c>
+      <c r="D4">
+        <v>1.001002788579844</v>
+      </c>
+      <c r="E4">
         <v>1.000343820203205</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.000365126960484</v>
+      </c>
+      <c r="G4">
         <v>0.9985473785823196</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.000373896833696</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0.9985473785823196</v>
+      </c>
+      <c r="J4">
         <v>1.000343820203205</v>
-      </c>
-      <c r="G4">
-        <v>1.001002788579844</v>
-      </c>
-      <c r="H4">
-        <v>0.9991940996657495</v>
-      </c>
-      <c r="I4">
-        <v>1.000365126960484</v>
-      </c>
-      <c r="J4">
-        <v>0.9985473785823196</v>
       </c>
       <c r="K4">
         <v>1.000343820203205</v>
@@ -790,7 +742,7 @@
         <v>0.9999711851375497</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.998455498963</v>
+      </c>
+      <c r="D5">
+        <v>1.001918733648645</v>
+      </c>
+      <c r="E5">
         <v>1.000661617207717</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.000699907646015</v>
+      </c>
+      <c r="G5">
         <v>0.9972145536025339</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.000715659089154</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0.9972145536025339</v>
+      </c>
+      <c r="J5">
         <v>1.000661617207717</v>
-      </c>
-      <c r="G5">
-        <v>1.001918733648645</v>
-      </c>
-      <c r="H5">
-        <v>0.998455498963</v>
-      </c>
-      <c r="I5">
-        <v>1.000699907646015</v>
-      </c>
-      <c r="J5">
-        <v>0.9972145536025339</v>
       </c>
       <c r="K5">
         <v>1.000661617207717</v>
@@ -852,7 +804,7 @@
         <v>0.9999443283595109</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +812,61 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9977346630137683</v>
+      </c>
+      <c r="D6">
+        <v>1.00281271969319</v>
+      </c>
+      <c r="E6">
         <v>1.000971707765211</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.001026628349418</v>
+      </c>
+      <c r="G6">
         <v>0.9959138174707373</v>
       </c>
-      <c r="E6">
-        <v>1.001049232646615</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.001049232646614</v>
+      </c>
+      <c r="I6">
+        <v>0.9959138174707373</v>
+      </c>
+      <c r="J6">
         <v>1.000971707765211</v>
-      </c>
-      <c r="G6">
-        <v>1.00281271969319</v>
-      </c>
-      <c r="H6">
-        <v>0.9977346630137683</v>
-      </c>
-      <c r="I6">
-        <v>1.001026628349418</v>
-      </c>
-      <c r="J6">
-        <v>0.9959138174707373</v>
       </c>
       <c r="K6">
         <v>1.000971707765211</v>
       </c>
       <c r="L6">
-        <v>1.001049232646615</v>
+        <v>1.001049232646614</v>
       </c>
       <c r="M6">
-        <v>0.998481525058676</v>
+        <v>0.9984815250586758</v>
       </c>
       <c r="N6">
-        <v>0.998481525058676</v>
+        <v>0.9984815250586758</v>
       </c>
       <c r="O6">
-        <v>0.9982325710437068</v>
+        <v>0.9982325710437067</v>
       </c>
       <c r="P6">
         <v>0.9993115859608542</v>
       </c>
       <c r="Q6">
-        <v>0.9993115859608545</v>
+        <v>0.9993115859608542</v>
       </c>
       <c r="R6">
-        <v>0.9997266164119436</v>
+        <v>0.9997266164119434</v>
       </c>
       <c r="S6">
-        <v>0.9997266164119436</v>
+        <v>0.9997266164119434</v>
       </c>
       <c r="T6">
         <v>0.9999181281564899</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999875671176671</v>
+      </c>
+      <c r="D7">
+        <v>1.000014027259726</v>
+      </c>
+      <c r="E7">
         <v>1.000006556675965</v>
       </c>
-      <c r="D7">
-        <v>0.9999768859397969</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>1.000005699154785</v>
+      </c>
+      <c r="G7">
+        <v>0.9999768859397967</v>
+      </c>
+      <c r="H7">
         <v>1.000005346970733</v>
       </c>
-      <c r="F7">
+      <c r="I7">
+        <v>0.9999768859397967</v>
+      </c>
+      <c r="J7">
         <v>1.000006556675965</v>
-      </c>
-      <c r="G7">
-        <v>1.000014027259726</v>
-      </c>
-      <c r="H7">
-        <v>0.9999875671176671</v>
-      </c>
-      <c r="I7">
-        <v>1.000005699154785</v>
-      </c>
-      <c r="J7">
-        <v>0.9999768859397969</v>
       </c>
       <c r="K7">
         <v>1.000006556675965</v>
@@ -952,13 +904,13 @@
         <v>1.000005346970733</v>
       </c>
       <c r="M7">
-        <v>0.9999911164552651</v>
+        <v>0.9999911164552648</v>
       </c>
       <c r="N7">
-        <v>0.9999911164552651</v>
+        <v>0.9999911164552648</v>
       </c>
       <c r="O7">
-        <v>0.9999899333427323</v>
+        <v>0.9999899333427322</v>
       </c>
       <c r="P7">
         <v>0.9999962631954983</v>
@@ -976,7 +928,7 @@
         <v>0.9999993471864457</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999952658392978</v>
+      </c>
+      <c r="D8">
+        <v>1.000003416866449</v>
+      </c>
+      <c r="E8">
         <v>1.000004166541377</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1.000002258613509</v>
+      </c>
+      <c r="G8">
         <v>0.9999902593983959</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.000001474286615</v>
       </c>
-      <c r="F8">
+      <c r="I8">
+        <v>0.9999902593983959</v>
+      </c>
+      <c r="J8">
         <v>1.000004166541377</v>
-      </c>
-      <c r="G8">
-        <v>1.00000341686645</v>
-      </c>
-      <c r="H8">
-        <v>0.9999952658392975</v>
-      </c>
-      <c r="I8">
-        <v>1.000002258613509</v>
-      </c>
-      <c r="J8">
-        <v>0.9999902593983959</v>
       </c>
       <c r="K8">
         <v>1.000004166541377</v>
@@ -1020,7 +972,7 @@
         <v>0.9999958668425053</v>
       </c>
       <c r="O8">
-        <v>0.9999956665081027</v>
+        <v>0.9999956665081028</v>
       </c>
       <c r="P8">
         <v>0.9999986334087957</v>
@@ -1038,7 +990,7 @@
         <v>0.9999994735909404</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,31 +998,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999982827218602</v>
+        <v>1.000042485614421</v>
       </c>
       <c r="D9">
+        <v>0.9999460386175759</v>
+      </c>
+      <c r="E9">
+        <v>0.9999828272186022</v>
+      </c>
+      <c r="F9">
+        <v>0.9999808016866253</v>
+      </c>
+      <c r="G9">
         <v>1.000076043867933</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>0.9999799690909666</v>
       </c>
-      <c r="F9">
-        <v>0.999982827218602</v>
-      </c>
-      <c r="G9">
-        <v>0.9999460386175761</v>
-      </c>
-      <c r="H9">
-        <v>1.000042485614421</v>
-      </c>
       <c r="I9">
-        <v>0.9999808016866253</v>
+        <v>1.000076043867933</v>
       </c>
       <c r="J9">
-        <v>1.000076043867933</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="K9">
-        <v>0.999982827218602</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="L9">
         <v>0.9999799690909666</v>
@@ -1082,7 +1034,7 @@
         <v>1.00002800647945</v>
       </c>
       <c r="O9">
-        <v>1.000032832857773</v>
+        <v>1.000032832857774</v>
       </c>
       <c r="P9">
         <v>1.000012946725834</v>
@@ -1100,7 +1052,7 @@
         <v>1.000001361016021</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000047089612283</v>
+      </c>
+      <c r="D10">
+        <v>0.9999366642839626</v>
+      </c>
+      <c r="E10">
         <v>0.9999840245778081</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.9999788838059116</v>
+      </c>
+      <c r="G10">
         <v>1.00008256550549</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>0.9999767667035414</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>1.00008256550549</v>
+      </c>
+      <c r="J10">
         <v>0.9999840245778081</v>
-      </c>
-      <c r="G10">
-        <v>0.9999366642839623</v>
-      </c>
-      <c r="H10">
-        <v>1.000047089612283</v>
-      </c>
-      <c r="I10">
-        <v>0.9999788838059116</v>
-      </c>
-      <c r="J10">
-        <v>1.00008256550549</v>
       </c>
       <c r="K10">
         <v>0.9999840245778081</v>
@@ -1159,10 +1111,10 @@
         <v>1.000006845341162</v>
       </c>
       <c r="T10">
-        <v>1.000000999081499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.0000009990815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.00019005525738</v>
+      </c>
+      <c r="D11">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="E11">
         <v>0.9999209240186009</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9999139993826835</v>
+      </c>
+      <c r="G11">
         <v>1.000341438385702</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>0.9999111535341664</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>1.000341438385702</v>
+      </c>
+      <c r="J11">
         <v>0.9999209240186009</v>
-      </c>
-      <c r="G11">
-        <v>0.9997612043993357</v>
-      </c>
-      <c r="H11">
-        <v>1.00019005525738</v>
-      </c>
-      <c r="I11">
-        <v>0.9999139993826838</v>
-      </c>
-      <c r="J11">
-        <v>1.000341438385702</v>
       </c>
       <c r="K11">
         <v>0.9999209240186009</v>
@@ -1224,7 +1176,7 @@
         <v>1.000006462496311</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.999282435739436</v>
+      </c>
+      <c r="D12">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="E12">
         <v>1.000296024782096</v>
       </c>
-      <c r="D12">
-        <v>0.998712304105885</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
+        <v>1.000324559131633</v>
+      </c>
+      <c r="G12">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="H12">
         <v>1.000336325498456</v>
       </c>
-      <c r="F12">
+      <c r="I12">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="J12">
         <v>1.000296024782096</v>
-      </c>
-      <c r="G12">
-        <v>1.000904523457336</v>
-      </c>
-      <c r="H12">
-        <v>0.9992824357394356</v>
-      </c>
-      <c r="I12">
-        <v>1.000324559131633</v>
-      </c>
-      <c r="J12">
-        <v>0.998712304105885</v>
       </c>
       <c r="K12">
         <v>1.000296024782096</v>
@@ -1262,10 +1214,10 @@
         <v>1.000336325498456</v>
       </c>
       <c r="M12">
-        <v>0.9995243148021704</v>
+        <v>0.9995243148021703</v>
       </c>
       <c r="N12">
-        <v>0.9995243148021704</v>
+        <v>0.9995243148021703</v>
       </c>
       <c r="O12">
         <v>0.9994436884479255</v>
@@ -1286,7 +1238,7 @@
         <v>0.9999760287858068</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9998045610426183</v>
+      </c>
+      <c r="D13">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="E13">
         <v>1.000103377191377</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1.000089609287539</v>
+      </c>
+      <c r="G13">
         <v>0.9996364740418495</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>1.000083939203447</v>
       </c>
-      <c r="F13">
+      <c r="I13">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="J13">
         <v>1.000103377191377</v>
-      </c>
-      <c r="G13">
-        <v>1.000220137397194</v>
-      </c>
-      <c r="H13">
-        <v>0.9998045610426183</v>
-      </c>
-      <c r="I13">
-        <v>1.000089609287539</v>
-      </c>
-      <c r="J13">
-        <v>0.9996364740418495</v>
       </c>
       <c r="K13">
         <v>1.000103377191377</v>
@@ -1348,7 +1300,7 @@
         <v>0.9999896830273373</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.068374821632422</v>
+      </c>
+      <c r="D14">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="E14">
         <v>0.9686981865604244</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9689087623183814</v>
+      </c>
+      <c r="G14">
         <v>1.124442944769613</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.968995417645736</v>
       </c>
-      <c r="F14">
+      <c r="I14">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="J14">
         <v>0.9686981865604244</v>
-      </c>
-      <c r="G14">
-        <v>0.9173777296412537</v>
-      </c>
-      <c r="H14">
-        <v>1.068374821632422</v>
-      </c>
-      <c r="I14">
-        <v>0.9689087623183814</v>
-      </c>
-      <c r="J14">
-        <v>1.124442944769613</v>
       </c>
       <c r="K14">
         <v>0.9686981865604244</v>
@@ -1410,7 +1362,7 @@
         <v>1.002799643761305</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.991814786831627</v>
+        <v>1.01821901744236</v>
       </c>
       <c r="D15">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="E15">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="F15">
+        <v>0.9917237199623146</v>
+      </c>
+      <c r="G15">
         <v>1.033071397338449</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9916862453123849</v>
       </c>
-      <c r="F15">
-        <v>0.991814786831627</v>
-      </c>
-      <c r="G15">
-        <v>0.9778055018278902</v>
-      </c>
-      <c r="H15">
-        <v>1.01821901744236</v>
-      </c>
       <c r="I15">
-        <v>0.9917237199623146</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="J15">
-        <v>1.033071397338449</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="K15">
-        <v>0.991814786831627</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="L15">
         <v>0.9916862453123849</v>
@@ -1472,7 +1424,7 @@
         <v>1.000720111452504</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000003870245656</v>
+        <v>0.9918664140315151</v>
       </c>
       <c r="D16">
-        <v>0.9999949638095905</v>
+        <v>1.010084172450054</v>
       </c>
       <c r="E16">
-        <v>0.9999998093001783</v>
+        <v>1.003501669070067</v>
       </c>
       <c r="F16">
-        <v>1.000003870245656</v>
+        <v>1.003686738292325</v>
       </c>
       <c r="G16">
-        <v>0.999998716431275</v>
+        <v>0.9853215821751267</v>
       </c>
       <c r="H16">
-        <v>0.9999981698492193</v>
+        <v>1.003762905506334</v>
       </c>
       <c r="I16">
-        <v>1.000000992610678</v>
+        <v>0.9853215821751267</v>
       </c>
       <c r="J16">
-        <v>0.9999949638095905</v>
+        <v>1.003501669070067</v>
       </c>
       <c r="K16">
-        <v>1.000003870245656</v>
+        <v>1.003501669070067</v>
       </c>
       <c r="L16">
-        <v>0.9999998093001783</v>
+        <v>1.003762905506334</v>
       </c>
       <c r="M16">
-        <v>0.9999973865548843</v>
+        <v>0.9945422438407302</v>
       </c>
       <c r="N16">
-        <v>0.9999973865548843</v>
+        <v>0.9945422438407302</v>
       </c>
       <c r="O16">
-        <v>0.999997647652996</v>
+        <v>0.9936503005709918</v>
       </c>
       <c r="P16">
-        <v>0.9999995477851416</v>
+        <v>0.9975287189171759</v>
       </c>
       <c r="Q16">
-        <v>0.9999995477851417</v>
+        <v>0.9975287189171759</v>
       </c>
       <c r="R16">
-        <v>1.00000062840027</v>
+        <v>0.9990219564553986</v>
       </c>
       <c r="S16">
-        <v>1.00000062840027</v>
+        <v>0.9990219564553986</v>
       </c>
       <c r="T16">
-        <v>0.9999994203744329</v>
+        <v>0.9997039135875703</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000013752951584</v>
+        <v>0.9933758044434539</v>
       </c>
       <c r="D17">
-        <v>0.9999353169479764</v>
+        <v>1.008144461666858</v>
       </c>
       <c r="E17">
-        <v>1.000017514546741</v>
+        <v>1.002911128997334</v>
       </c>
       <c r="F17">
-        <v>1.000013752951584</v>
+        <v>1.003005709822839</v>
       </c>
       <c r="G17">
-        <v>1.000047420499376</v>
+        <v>0.9880121840586821</v>
       </c>
       <c r="H17">
-        <v>0.9999635538634517</v>
+        <v>1.003044637412297</v>
       </c>
       <c r="I17">
-        <v>1.00001641725502</v>
+        <v>0.9880121840586821</v>
       </c>
       <c r="J17">
-        <v>0.9999353169479764</v>
+        <v>1.002911128997334</v>
       </c>
       <c r="K17">
-        <v>1.000013752951584</v>
+        <v>1.002911128997334</v>
       </c>
       <c r="L17">
-        <v>1.000017514546741</v>
+        <v>1.003044637412297</v>
       </c>
       <c r="M17">
-        <v>0.999976415747359</v>
+        <v>0.9955284107354894</v>
       </c>
       <c r="N17">
-        <v>0.999976415747359</v>
+        <v>0.9955284107354894</v>
       </c>
       <c r="O17">
-        <v>0.9999721284527232</v>
+        <v>0.9948108753048109</v>
       </c>
       <c r="P17">
-        <v>0.9999888614821008</v>
+        <v>0.9979893168227711</v>
       </c>
       <c r="Q17">
-        <v>0.9999888614821008</v>
+        <v>0.9979893168227711</v>
       </c>
       <c r="R17">
-        <v>0.9999950843494716</v>
+        <v>0.999219769866412</v>
       </c>
       <c r="S17">
-        <v>0.9999950843494716</v>
+        <v>0.999219769866412</v>
       </c>
       <c r="T17">
-        <v>0.9999989960106918</v>
+        <v>0.9997489877335773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000062189058848</v>
+        <v>0.9964752838173615</v>
       </c>
       <c r="D18">
-        <v>0.9997637967278139</v>
+        <v>1.004169720352327</v>
       </c>
       <c r="E18">
-        <v>1.000057306075096</v>
+        <v>1.001691202788368</v>
       </c>
       <c r="F18">
-        <v>1.000062189058848</v>
+        <v>1.001606859427812</v>
       </c>
       <c r="G18">
-        <v>1.000151888687529</v>
+        <v>0.9935413284004607</v>
       </c>
       <c r="H18">
-        <v>0.9998712188031675</v>
+        <v>1.001572149530898</v>
       </c>
       <c r="I18">
-        <v>1.000058728993573</v>
+        <v>0.9935413284004607</v>
       </c>
       <c r="J18">
-        <v>0.9997637967278139</v>
+        <v>1.001691202788368</v>
       </c>
       <c r="K18">
-        <v>1.000062189058848</v>
+        <v>1.001691202788368</v>
       </c>
       <c r="L18">
-        <v>1.000057306075096</v>
+        <v>1.001572149530898</v>
       </c>
       <c r="M18">
-        <v>0.9999105514014551</v>
+        <v>0.9975567389656794</v>
       </c>
       <c r="N18">
-        <v>0.9999105514014551</v>
+        <v>0.9975567389656794</v>
       </c>
       <c r="O18">
-        <v>0.9998974405353592</v>
+        <v>0.9971962539162401</v>
       </c>
       <c r="P18">
-        <v>0.9999610972872528</v>
+        <v>0.9989348935732423</v>
       </c>
       <c r="Q18">
-        <v>0.9999610972872528</v>
+        <v>0.9989348935732423</v>
       </c>
       <c r="R18">
-        <v>0.9999863702301516</v>
+        <v>0.9996239708770236</v>
       </c>
       <c r="S18">
-        <v>0.9999863702301516</v>
+        <v>0.9996239708770236</v>
       </c>
       <c r="T18">
-        <v>0.9999941880576714</v>
+        <v>0.9998427573862045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9959474260206778</v>
+      </c>
+      <c r="D19">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="E19">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="F19">
+        <v>1.001848719965042</v>
+      </c>
+      <c r="G19">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="H19">
+        <v>1.001799806848815</v>
+      </c>
+      <c r="I19">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="J19">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="K19">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="L19">
+        <v>1.001799806848815</v>
+      </c>
+      <c r="M19">
+        <v>0.9971804436755368</v>
+      </c>
+      <c r="N19">
+        <v>0.9971804436755368</v>
+      </c>
+      <c r="O19">
+        <v>0.9967694377905838</v>
+      </c>
+      <c r="P19">
+        <v>0.9987761587431226</v>
+      </c>
+      <c r="Q19">
+        <v>0.9987761587431226</v>
+      </c>
+      <c r="R19">
+        <v>0.9995740162769157</v>
+      </c>
+      <c r="S19">
+        <v>0.9995740162769157</v>
+      </c>
+      <c r="T19">
+        <v>0.9998153578939356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999981698492195</v>
+      </c>
+      <c r="D20">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="E20">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="F20">
+        <v>1.000000992610678</v>
+      </c>
+      <c r="G20">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="H20">
+        <v>0.9999998093001783</v>
+      </c>
+      <c r="I20">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="J20">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="K20">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="L20">
+        <v>0.9999998093001783</v>
+      </c>
+      <c r="M20">
+        <v>0.9999973865548843</v>
+      </c>
+      <c r="N20">
+        <v>0.9999973865548843</v>
+      </c>
+      <c r="O20">
+        <v>0.999997647652996</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995477851416</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999995477851417</v>
+      </c>
+      <c r="R20">
+        <v>1.00000062840027</v>
+      </c>
+      <c r="S20">
+        <v>1.00000062840027</v>
+      </c>
+      <c r="T20">
+        <v>0.9999994203744329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999635538634517</v>
+      </c>
+      <c r="D21">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="E21">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="F21">
+        <v>1.00001641725502</v>
+      </c>
+      <c r="G21">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="H21">
+        <v>1.000017514546741</v>
+      </c>
+      <c r="I21">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="J21">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="K21">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="L21">
+        <v>1.000017514546741</v>
+      </c>
+      <c r="M21">
+        <v>0.9999764157473588</v>
+      </c>
+      <c r="N21">
+        <v>0.9999764157473588</v>
+      </c>
+      <c r="O21">
+        <v>0.9999721284527231</v>
+      </c>
+      <c r="P21">
+        <v>0.9999888614821005</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999888614821005</v>
+      </c>
+      <c r="R21">
+        <v>0.9999950843494715</v>
+      </c>
+      <c r="S21">
+        <v>0.9999950843494715</v>
+      </c>
+      <c r="T21">
+        <v>0.9999989960106914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9998712188031678</v>
+      </c>
+      <c r="D22">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="E22">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="F22">
+        <v>1.000058728993573</v>
+      </c>
+      <c r="G22">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="H22">
+        <v>1.000057306075096</v>
+      </c>
+      <c r="I22">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="J22">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="K22">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="L22">
+        <v>1.000057306075096</v>
+      </c>
+      <c r="M22">
+        <v>0.9999105514014552</v>
+      </c>
+      <c r="N22">
+        <v>0.9999105514014552</v>
+      </c>
+      <c r="O22">
+        <v>0.9998974405353594</v>
+      </c>
+      <c r="P22">
+        <v>0.9999610972872528</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999610972872528</v>
+      </c>
+      <c r="R22">
+        <v>0.9999863702301516</v>
+      </c>
+      <c r="S22">
+        <v>0.9999863702301516</v>
+      </c>
+      <c r="T22">
+        <v>0.9999941880576714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9996980746796682</v>
+      </c>
+      <c r="D23">
+        <v>1.000348418772762</v>
+      </c>
+      <c r="E23">
         <v>1.000152464205067</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000138044698857</v>
+      </c>
+      <c r="G23">
         <v>0.9994424800133056</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.000132109605388</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.9994424800133056</v>
+      </c>
+      <c r="J23">
         <v>1.000152464205067</v>
       </c>
-      <c r="G19">
-        <v>1.000348418772762</v>
-      </c>
-      <c r="H19">
-        <v>0.9996980746796681</v>
-      </c>
-      <c r="I19">
-        <v>1.000138044698857</v>
-      </c>
-      <c r="J19">
-        <v>0.9994424800133056</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000152464205067</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000132109605388</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9997872948093469</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9997872948093469</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9997575547661207</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999090179412535</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999090179412535</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999698795072068</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999698795072068</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999852653291746</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9995825351295931</v>
+        <v>0.9955868407204626</v>
       </c>
       <c r="D3">
-        <v>1.000519291939382</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="E3">
-        <v>1.000178242900643</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="F3">
-        <v>1.000189147132662</v>
+        <v>1.002011187802594</v>
       </c>
       <c r="G3">
-        <v>0.9992474495261396</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="H3">
-        <v>1.000193635630451</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="I3">
-        <v>0.9992474495261396</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="J3">
-        <v>1.000178242900643</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="K3">
-        <v>1.000178242900643</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="L3">
-        <v>1.000193635630451</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="M3">
-        <v>0.9997205425782953</v>
+        <v>0.996946791286023</v>
       </c>
       <c r="N3">
-        <v>0.9997205425782953</v>
+        <v>0.996946791286023</v>
       </c>
       <c r="O3">
-        <v>0.9996745400953945</v>
+        <v>0.9964934744308361</v>
       </c>
       <c r="P3">
-        <v>0.999873109352411</v>
+        <v>0.9986659818395772</v>
       </c>
       <c r="Q3">
-        <v>0.999873109352411</v>
+        <v>0.9986659818395772</v>
       </c>
       <c r="R3">
-        <v>0.9999493927394689</v>
+        <v>0.9995255771163545</v>
       </c>
       <c r="S3">
-        <v>0.9999493927394689</v>
+        <v>0.9995255771163545</v>
       </c>
       <c r="T3">
-        <v>0.9999850503764783</v>
+        <v>0.9998053081111915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9991940996657495</v>
+        <v>0.9959661053522243</v>
       </c>
       <c r="D4">
-        <v>1.001002788579844</v>
+        <v>1.004780581910174</v>
       </c>
       <c r="E4">
-        <v>1.000343820203205</v>
+        <v>1.001928133387999</v>
       </c>
       <c r="F4">
-        <v>1.000365126960484</v>
+        <v>1.001838592007086</v>
       </c>
       <c r="G4">
-        <v>0.9985473785823196</v>
+        <v>0.9926124652870006</v>
       </c>
       <c r="H4">
-        <v>1.000373896833696</v>
+        <v>1.001801746520683</v>
       </c>
       <c r="I4">
-        <v>0.9985473785823196</v>
+        <v>0.9926124652870006</v>
       </c>
       <c r="J4">
-        <v>1.000343820203205</v>
+        <v>1.001928133387999</v>
       </c>
       <c r="K4">
-        <v>1.000343820203205</v>
+        <v>1.001928133387999</v>
       </c>
       <c r="L4">
-        <v>1.000373896833696</v>
+        <v>1.001801746520683</v>
       </c>
       <c r="M4">
-        <v>0.9994606377080076</v>
+        <v>0.9972071059038419</v>
       </c>
       <c r="N4">
-        <v>0.9994606377080076</v>
+        <v>0.9972071059038419</v>
       </c>
       <c r="O4">
-        <v>0.9993717916939215</v>
+        <v>0.9967934390533028</v>
       </c>
       <c r="P4">
-        <v>0.9997550318730735</v>
+        <v>0.9987807817318943</v>
       </c>
       <c r="Q4">
-        <v>0.9997550318730735</v>
+        <v>0.9987807817318943</v>
       </c>
       <c r="R4">
-        <v>0.9999022289556064</v>
+        <v>0.9995676196459207</v>
       </c>
       <c r="S4">
-        <v>0.9999022289556064</v>
+        <v>0.9995676196459207</v>
       </c>
       <c r="T4">
-        <v>0.9999711851375497</v>
+        <v>0.9998212707441945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998455498963</v>
+        <v>0.9949230311590302</v>
       </c>
       <c r="D5">
-        <v>1.001918733648645</v>
+        <v>1.006031439730458</v>
       </c>
       <c r="E5">
-        <v>1.000661617207717</v>
+        <v>1.002413951940701</v>
       </c>
       <c r="F5">
-        <v>1.000699907646015</v>
+        <v>1.002313338005392</v>
       </c>
       <c r="G5">
-        <v>0.9972145536025339</v>
+        <v>0.9907093837735834</v>
       </c>
       <c r="H5">
-        <v>1.000715659089154</v>
+        <v>1.002271932668463</v>
       </c>
       <c r="I5">
-        <v>0.9972145536025339</v>
+        <v>0.9907093837735834</v>
       </c>
       <c r="J5">
-        <v>1.000661617207717</v>
+        <v>1.002413951940701</v>
       </c>
       <c r="K5">
-        <v>1.000661617207717</v>
+        <v>1.002413951940701</v>
       </c>
       <c r="L5">
-        <v>1.000715659089154</v>
+        <v>1.002271932668463</v>
       </c>
       <c r="M5">
-        <v>0.9989651063458438</v>
+        <v>0.9964906582210233</v>
       </c>
       <c r="N5">
-        <v>0.9989651063458438</v>
+        <v>0.9964906582210233</v>
       </c>
       <c r="O5">
-        <v>0.9987952372182293</v>
+        <v>0.9959681158670257</v>
       </c>
       <c r="P5">
-        <v>0.9995306099664684</v>
+        <v>0.9984650894609159</v>
       </c>
       <c r="Q5">
-        <v>0.9995306099664684</v>
+        <v>0.9984650894609159</v>
       </c>
       <c r="R5">
-        <v>0.9998133617767806</v>
+        <v>0.9994523050808622</v>
       </c>
       <c r="S5">
-        <v>0.9998133617767806</v>
+        <v>0.9994523050808622</v>
       </c>
       <c r="T5">
-        <v>0.9999443283595109</v>
+        <v>0.9997771795462712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9977346630137683</v>
+        <v>0.9943703622159094</v>
       </c>
       <c r="D6">
-        <v>1.00281271969319</v>
+        <v>1.006692095056819</v>
       </c>
       <c r="E6">
-        <v>1.000971707765211</v>
+        <v>1.002673182897727</v>
       </c>
       <c r="F6">
-        <v>1.001026628349418</v>
+        <v>1.002564967329546</v>
       </c>
       <c r="G6">
-        <v>0.9959138174707373</v>
+        <v>0.9897000243181825</v>
       </c>
       <c r="H6">
-        <v>1.001049232646614</v>
+        <v>1.002520450056818</v>
       </c>
       <c r="I6">
-        <v>0.9959138174707373</v>
+        <v>0.9897000243181825</v>
       </c>
       <c r="J6">
-        <v>1.000971707765211</v>
+        <v>1.002673182897727</v>
       </c>
       <c r="K6">
-        <v>1.000971707765211</v>
+        <v>1.002673182897727</v>
       </c>
       <c r="L6">
-        <v>1.001049232646614</v>
+        <v>1.002520450056818</v>
       </c>
       <c r="M6">
-        <v>0.9984815250586758</v>
+        <v>0.9961102371875004</v>
       </c>
       <c r="N6">
-        <v>0.9984815250586758</v>
+        <v>0.9961102371875004</v>
       </c>
       <c r="O6">
-        <v>0.9982325710437067</v>
+        <v>0.9955302788636367</v>
       </c>
       <c r="P6">
-        <v>0.9993115859608542</v>
+        <v>0.9982978857575761</v>
       </c>
       <c r="Q6">
-        <v>0.9993115859608542</v>
+        <v>0.9982978857575761</v>
       </c>
       <c r="R6">
-        <v>0.9997266164119434</v>
+        <v>0.9993917100426138</v>
       </c>
       <c r="S6">
-        <v>0.9997266164119434</v>
+        <v>0.9993917100426138</v>
       </c>
       <c r="T6">
-        <v>0.9999181281564899</v>
+        <v>0.9997535136458336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999875671176671</v>
+        <v>0.9916302007844661</v>
       </c>
       <c r="D7">
-        <v>1.000014027259726</v>
+        <v>1.010555454385014</v>
       </c>
       <c r="E7">
-        <v>1.000006556675965</v>
+        <v>1.003448589104528</v>
       </c>
       <c r="F7">
-        <v>1.000005699154785</v>
+        <v>1.003785616242425</v>
       </c>
       <c r="G7">
-        <v>0.9999768859397967</v>
+        <v>0.9849823549337132</v>
       </c>
       <c r="H7">
-        <v>1.000005346970733</v>
+        <v>1.003924315530048</v>
       </c>
       <c r="I7">
-        <v>0.9999768859397967</v>
+        <v>0.9849823549337132</v>
       </c>
       <c r="J7">
-        <v>1.000006556675965</v>
+        <v>1.003448589104528</v>
       </c>
       <c r="K7">
-        <v>1.000006556675965</v>
+        <v>1.003448589104528</v>
       </c>
       <c r="L7">
-        <v>1.000005346970733</v>
+        <v>1.003924315530048</v>
       </c>
       <c r="M7">
-        <v>0.9999911164552648</v>
+        <v>0.9944533352318805</v>
       </c>
       <c r="N7">
-        <v>0.9999911164552648</v>
+        <v>0.9944533352318805</v>
       </c>
       <c r="O7">
-        <v>0.9999899333427322</v>
+        <v>0.9935122904160757</v>
       </c>
       <c r="P7">
-        <v>0.9999962631954983</v>
+        <v>0.9974517531894298</v>
       </c>
       <c r="Q7">
-        <v>0.9999962631954983</v>
+        <v>0.9974517531894298</v>
       </c>
       <c r="R7">
-        <v>0.9999988365656149</v>
+        <v>0.9989509621682044</v>
       </c>
       <c r="S7">
-        <v>0.9999988365656149</v>
+        <v>0.9989509621682044</v>
       </c>
       <c r="T7">
-        <v>0.9999993471864457</v>
+        <v>0.9997210884966991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999952658392978</v>
+        <v>0.9918049984074808</v>
       </c>
       <c r="D8">
-        <v>1.000003416866449</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="E8">
-        <v>1.000004166541377</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="F8">
-        <v>1.000002258613509</v>
+        <v>1.003706394566522</v>
       </c>
       <c r="G8">
-        <v>0.9999902593983959</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="H8">
-        <v>1.000001474286615</v>
+        <v>1.00384338652565</v>
       </c>
       <c r="I8">
-        <v>0.9999902593983959</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="J8">
-        <v>1.000004166541377</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="K8">
-        <v>1.000004166541377</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="L8">
-        <v>1.000001474286615</v>
+        <v>1.00384338652565</v>
       </c>
       <c r="M8">
-        <v>0.9999958668425053</v>
+        <v>0.9945705453931089</v>
       </c>
       <c r="N8">
-        <v>0.9999958668425053</v>
+        <v>0.9945705453931089</v>
       </c>
       <c r="O8">
-        <v>0.9999956665081028</v>
+        <v>0.9936486963978995</v>
       </c>
       <c r="P8">
-        <v>0.9999986334087957</v>
+        <v>0.9975048692431857</v>
       </c>
       <c r="Q8">
-        <v>0.9999986334087957</v>
+        <v>0.9975048692431857</v>
       </c>
       <c r="R8">
-        <v>1.000000016691941</v>
+        <v>0.9989720311682242</v>
       </c>
       <c r="S8">
-        <v>1.000000016691941</v>
+        <v>0.9989720311682242</v>
       </c>
       <c r="T8">
-        <v>0.9999994735909404</v>
+        <v>0.9997274214741495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000042485614421</v>
+        <v>0.9918507891940401</v>
       </c>
       <c r="D9">
-        <v>0.9999460386175759</v>
+        <v>1.010277265016692</v>
       </c>
       <c r="E9">
-        <v>0.9999828272186022</v>
+        <v>1.003357698991005</v>
       </c>
       <c r="F9">
-        <v>0.9999808016866253</v>
+        <v>1.003685844927642</v>
       </c>
       <c r="G9">
-        <v>1.000076043867933</v>
+        <v>0.9853781499576242</v>
       </c>
       <c r="H9">
-        <v>0.9999799690909666</v>
+        <v>1.003820889901179</v>
       </c>
       <c r="I9">
-        <v>1.000076043867933</v>
+        <v>0.9853781499576242</v>
       </c>
       <c r="J9">
-        <v>0.9999828272186022</v>
+        <v>1.003357698991005</v>
       </c>
       <c r="K9">
-        <v>0.9999828272186022</v>
+        <v>1.003357698991005</v>
       </c>
       <c r="L9">
-        <v>0.9999799690909666</v>
+        <v>1.003820889901179</v>
       </c>
       <c r="M9">
-        <v>1.00002800647945</v>
+        <v>0.9945995199294014</v>
       </c>
       <c r="N9">
-        <v>1.00002800647945</v>
+        <v>0.9945995199294014</v>
       </c>
       <c r="O9">
-        <v>1.000032832857774</v>
+        <v>0.9936832763509477</v>
       </c>
       <c r="P9">
-        <v>1.000012946725834</v>
+        <v>0.9975189129499359</v>
       </c>
       <c r="Q9">
-        <v>1.000012946725834</v>
+        <v>0.9975189129499359</v>
       </c>
       <c r="R9">
-        <v>1.000005416849026</v>
+        <v>0.9989786094602031</v>
       </c>
       <c r="S9">
-        <v>1.000005416849026</v>
+        <v>0.9989786094602031</v>
       </c>
       <c r="T9">
-        <v>1.000001361016021</v>
+        <v>0.9997284396646969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000047089612283</v>
+        <v>0.9929050047302413</v>
       </c>
       <c r="D10">
-        <v>0.9999366642839626</v>
+        <v>1.008991989892748</v>
       </c>
       <c r="E10">
-        <v>0.9999840245778081</v>
+        <v>1.002884963071548</v>
       </c>
       <c r="F10">
-        <v>0.9999788838059116</v>
+        <v>1.003206997575462</v>
       </c>
       <c r="G10">
-        <v>1.00008256550549</v>
+        <v>0.987291275043914</v>
       </c>
       <c r="H10">
-        <v>0.9999767667035414</v>
+        <v>1.003339527871754</v>
       </c>
       <c r="I10">
-        <v>1.00008256550549</v>
+        <v>0.987291275043914</v>
       </c>
       <c r="J10">
-        <v>0.9999840245778081</v>
+        <v>1.002884963071548</v>
       </c>
       <c r="K10">
-        <v>0.9999840245778081</v>
+        <v>1.002884963071548</v>
       </c>
       <c r="L10">
-        <v>0.9999767667035414</v>
+        <v>1.003339527871754</v>
       </c>
       <c r="M10">
-        <v>1.000029666104516</v>
+        <v>0.9953154014578339</v>
       </c>
       <c r="N10">
-        <v>1.000029666104516</v>
+        <v>0.9953154014578339</v>
       </c>
       <c r="O10">
-        <v>1.000035473940438</v>
+        <v>0.9945119358819697</v>
       </c>
       <c r="P10">
-        <v>1.00001445226228</v>
+        <v>0.9978385886624052</v>
       </c>
       <c r="Q10">
-        <v>1.00001445226228</v>
+        <v>0.9978385886624052</v>
       </c>
       <c r="R10">
-        <v>1.000006845341162</v>
+        <v>0.9991001822646908</v>
       </c>
       <c r="S10">
-        <v>1.000006845341162</v>
+        <v>0.9991001822646908</v>
       </c>
       <c r="T10">
-        <v>1.0000009990815</v>
+        <v>0.9997699596976112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00019005525738</v>
+        <v>0.9995144862129347</v>
       </c>
       <c r="D11">
-        <v>0.9997612043993357</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="E11">
-        <v>0.9999209240186009</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="F11">
-        <v>0.9999139993826835</v>
+        <v>1.000219955598957</v>
       </c>
       <c r="G11">
-        <v>1.000341438385702</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="H11">
-        <v>0.9999111535341664</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="I11">
-        <v>1.000341438385702</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="J11">
-        <v>0.9999209240186009</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="K11">
-        <v>0.9999209240186009</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="L11">
-        <v>0.9999111535341664</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="M11">
-        <v>1.000126295959934</v>
+        <v>0.9996751915806317</v>
       </c>
       <c r="N11">
-        <v>1.000126295959934</v>
+        <v>0.9996751915806317</v>
       </c>
       <c r="O11">
-        <v>1.000147549059083</v>
+        <v>0.9996216231247327</v>
       </c>
       <c r="P11">
-        <v>1.000057838646156</v>
+        <v>0.9998524105201562</v>
       </c>
       <c r="Q11">
-        <v>1.000057838646156</v>
+        <v>0.9998524105201562</v>
       </c>
       <c r="R11">
-        <v>1.000023609989267</v>
+        <v>0.9999410199899184</v>
       </c>
       <c r="S11">
-        <v>1.000023609989267</v>
+        <v>0.9999410199899184</v>
       </c>
       <c r="T11">
-        <v>1.000006462496311</v>
+        <v>0.9999826884497024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.999282435739436</v>
+        <v>0.9998001612552265</v>
       </c>
       <c r="D12">
-        <v>1.000904523457336</v>
+        <v>1.000250757726504</v>
       </c>
       <c r="E12">
-        <v>1.000296024782096</v>
+        <v>1.000083438184209</v>
       </c>
       <c r="F12">
-        <v>1.000324559131633</v>
+        <v>1.000090444110502</v>
       </c>
       <c r="G12">
-        <v>0.9987123041058847</v>
+        <v>0.9996408184082052</v>
       </c>
       <c r="H12">
-        <v>1.000336325498456</v>
+        <v>1.000093328135331</v>
       </c>
       <c r="I12">
-        <v>0.9987123041058847</v>
+        <v>0.9996408184082052</v>
       </c>
       <c r="J12">
-        <v>1.000296024782096</v>
+        <v>1.000083438184209</v>
       </c>
       <c r="K12">
-        <v>1.000296024782096</v>
+        <v>1.000083438184209</v>
       </c>
       <c r="L12">
-        <v>1.000336325498456</v>
+        <v>1.000093328135331</v>
       </c>
       <c r="M12">
-        <v>0.9995243148021703</v>
+        <v>0.9998670732717683</v>
       </c>
       <c r="N12">
-        <v>0.9995243148021703</v>
+        <v>0.9998670732717683</v>
       </c>
       <c r="O12">
-        <v>0.9994436884479255</v>
+        <v>0.9998447692662543</v>
       </c>
       <c r="P12">
-        <v>0.9997815514621454</v>
+        <v>0.9999391949092485</v>
       </c>
       <c r="Q12">
-        <v>0.9997815514621454</v>
+        <v>0.9999391949092487</v>
       </c>
       <c r="R12">
-        <v>0.9999101697921331</v>
+        <v>0.9999752557279888</v>
       </c>
       <c r="S12">
-        <v>0.9999101697921331</v>
+        <v>0.9999752557279888</v>
       </c>
       <c r="T12">
-        <v>0.9999760287858068</v>
+        <v>0.9999931579699962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998045610426183</v>
+        <v>0.9996859103960762</v>
       </c>
       <c r="D13">
-        <v>1.000220137397194</v>
+        <v>1.000411120323383</v>
       </c>
       <c r="E13">
-        <v>1.000103377191377</v>
+        <v>1.000116396919785</v>
       </c>
       <c r="F13">
-        <v>1.000089609287539</v>
+        <v>1.000141377235521</v>
       </c>
       <c r="G13">
-        <v>0.9996364740418495</v>
+        <v>0.9994437594992617</v>
       </c>
       <c r="H13">
-        <v>1.000083939203447</v>
+        <v>1.000151652035918</v>
       </c>
       <c r="I13">
-        <v>0.9996364740418495</v>
+        <v>0.9994437594992617</v>
       </c>
       <c r="J13">
-        <v>1.000103377191377</v>
+        <v>1.000116396919785</v>
       </c>
       <c r="K13">
-        <v>1.000103377191377</v>
+        <v>1.000116396919785</v>
       </c>
       <c r="L13">
-        <v>1.000083939203447</v>
+        <v>1.000151652035918</v>
       </c>
       <c r="M13">
-        <v>0.9998602066226482</v>
+        <v>0.99979770576759</v>
       </c>
       <c r="N13">
-        <v>0.9998602066226482</v>
+        <v>0.99979770576759</v>
       </c>
       <c r="O13">
-        <v>0.9998416580959715</v>
+        <v>0.999760440643752</v>
       </c>
       <c r="P13">
-        <v>0.9999412634788912</v>
+        <v>0.9999039361516552</v>
       </c>
       <c r="Q13">
-        <v>0.9999412634788912</v>
+        <v>0.9999039361516552</v>
       </c>
       <c r="R13">
-        <v>0.9999817919070126</v>
+        <v>0.9999570513436877</v>
       </c>
       <c r="S13">
-        <v>0.9999817919070126</v>
+        <v>0.9999570513436877</v>
       </c>
       <c r="T13">
-        <v>0.9999896830273373</v>
+        <v>0.9999917027349911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.068374821632422</v>
+        <v>0.9988431301475148</v>
       </c>
       <c r="D14">
-        <v>0.9173777296412537</v>
+        <v>1.001437348366088</v>
       </c>
       <c r="E14">
-        <v>0.9686981865604244</v>
+        <v>1.000495423452439</v>
       </c>
       <c r="F14">
-        <v>0.9689087623183814</v>
+        <v>1.000524239980292</v>
       </c>
       <c r="G14">
-        <v>1.124442944769613</v>
+        <v>0.9979137104856531</v>
       </c>
       <c r="H14">
-        <v>0.968995417645736</v>
+        <v>1.000536106177489</v>
       </c>
       <c r="I14">
-        <v>1.124442944769613</v>
+        <v>0.9979137104856531</v>
       </c>
       <c r="J14">
-        <v>0.9686981865604244</v>
+        <v>1.000495423452439</v>
       </c>
       <c r="K14">
-        <v>0.9686981865604244</v>
+        <v>1.000495423452439</v>
       </c>
       <c r="L14">
-        <v>0.968995417645736</v>
+        <v>1.000536106177489</v>
       </c>
       <c r="M14">
-        <v>1.046719181207674</v>
+        <v>0.9992249083315712</v>
       </c>
       <c r="N14">
-        <v>1.046719181207674</v>
+        <v>0.9992249083315712</v>
       </c>
       <c r="O14">
-        <v>1.053937728015924</v>
+        <v>0.9990976489368858</v>
       </c>
       <c r="P14">
-        <v>1.020712182991924</v>
+        <v>0.9996484133718605</v>
       </c>
       <c r="Q14">
-        <v>1.020712182991924</v>
+        <v>0.9996484133718605</v>
       </c>
       <c r="R14">
-        <v>1.007708683884049</v>
+        <v>0.9998601658920052</v>
       </c>
       <c r="S14">
-        <v>1.007708683884049</v>
+        <v>0.9998601658920052</v>
       </c>
       <c r="T14">
-        <v>1.002799643761305</v>
+        <v>0.9999583264349128</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.01821901744236</v>
+        <v>0.9995825351295931</v>
       </c>
       <c r="D15">
-        <v>0.9778055018278902</v>
+        <v>1.000519291939382</v>
       </c>
       <c r="E15">
-        <v>0.9918147868316272</v>
+        <v>1.000178242900643</v>
       </c>
       <c r="F15">
-        <v>0.9917237199623146</v>
+        <v>1.000189147132662</v>
       </c>
       <c r="G15">
-        <v>1.033071397338449</v>
+        <v>0.9992474495261396</v>
       </c>
       <c r="H15">
-        <v>0.9916862453123849</v>
+        <v>1.000193635630451</v>
       </c>
       <c r="I15">
-        <v>1.033071397338449</v>
+        <v>0.9992474495261396</v>
       </c>
       <c r="J15">
-        <v>0.9918147868316272</v>
+        <v>1.000178242900643</v>
       </c>
       <c r="K15">
-        <v>0.9918147868316272</v>
+        <v>1.000178242900643</v>
       </c>
       <c r="L15">
-        <v>0.9916862453123849</v>
+        <v>1.000193635630451</v>
       </c>
       <c r="M15">
-        <v>1.012378821325417</v>
+        <v>0.9997205425782953</v>
       </c>
       <c r="N15">
-        <v>1.012378821325417</v>
+        <v>0.9997205425782953</v>
       </c>
       <c r="O15">
-        <v>1.014325553364398</v>
+        <v>0.9996745400953945</v>
       </c>
       <c r="P15">
-        <v>1.00552414316082</v>
+        <v>0.999873109352411</v>
       </c>
       <c r="Q15">
-        <v>1.00552414316082</v>
+        <v>0.999873109352411</v>
       </c>
       <c r="R15">
-        <v>1.002096804078522</v>
+        <v>0.9999493927394689</v>
       </c>
       <c r="S15">
-        <v>1.002096804078522</v>
+        <v>0.9999493927394689</v>
       </c>
       <c r="T15">
-        <v>1.000720111452504</v>
+        <v>0.9999850503764783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9918664140315151</v>
+        <v>0.9991940996657495</v>
       </c>
       <c r="D16">
-        <v>1.010084172450054</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="E16">
-        <v>1.003501669070067</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="F16">
-        <v>1.003686738292325</v>
+        <v>1.000365126960484</v>
       </c>
       <c r="G16">
-        <v>0.9853215821751267</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="H16">
-        <v>1.003762905506334</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="I16">
-        <v>0.9853215821751267</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="J16">
-        <v>1.003501669070067</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="K16">
-        <v>1.003501669070067</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="L16">
-        <v>1.003762905506334</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="M16">
-        <v>0.9945422438407302</v>
+        <v>0.9994606377080076</v>
       </c>
       <c r="N16">
-        <v>0.9945422438407302</v>
+        <v>0.9994606377080076</v>
       </c>
       <c r="O16">
-        <v>0.9936503005709918</v>
+        <v>0.9993717916939215</v>
       </c>
       <c r="P16">
-        <v>0.9975287189171759</v>
+        <v>0.9997550318730735</v>
       </c>
       <c r="Q16">
-        <v>0.9975287189171759</v>
+        <v>0.9997550318730735</v>
       </c>
       <c r="R16">
-        <v>0.9990219564553986</v>
+        <v>0.9999022289556064</v>
       </c>
       <c r="S16">
-        <v>0.9990219564553986</v>
+        <v>0.9999022289556064</v>
       </c>
       <c r="T16">
-        <v>0.9997039135875703</v>
+        <v>0.9999711851375497</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9933758044434539</v>
+        <v>0.998455498963</v>
       </c>
       <c r="D17">
-        <v>1.008144461666858</v>
+        <v>1.001918733648645</v>
       </c>
       <c r="E17">
-        <v>1.002911128997334</v>
+        <v>1.000661617207717</v>
       </c>
       <c r="F17">
-        <v>1.003005709822839</v>
+        <v>1.000699907646015</v>
       </c>
       <c r="G17">
-        <v>0.9880121840586821</v>
+        <v>0.9972145536025339</v>
       </c>
       <c r="H17">
-        <v>1.003044637412297</v>
+        <v>1.000715659089154</v>
       </c>
       <c r="I17">
-        <v>0.9880121840586821</v>
+        <v>0.9972145536025339</v>
       </c>
       <c r="J17">
-        <v>1.002911128997334</v>
+        <v>1.000661617207717</v>
       </c>
       <c r="K17">
-        <v>1.002911128997334</v>
+        <v>1.000661617207717</v>
       </c>
       <c r="L17">
-        <v>1.003044637412297</v>
+        <v>1.000715659089154</v>
       </c>
       <c r="M17">
-        <v>0.9955284107354894</v>
+        <v>0.9989651063458438</v>
       </c>
       <c r="N17">
-        <v>0.9955284107354894</v>
+        <v>0.9989651063458438</v>
       </c>
       <c r="O17">
-        <v>0.9948108753048109</v>
+        <v>0.9987952372182293</v>
       </c>
       <c r="P17">
-        <v>0.9979893168227711</v>
+        <v>0.9995306099664684</v>
       </c>
       <c r="Q17">
-        <v>0.9979893168227711</v>
+        <v>0.9995306099664684</v>
       </c>
       <c r="R17">
-        <v>0.999219769866412</v>
+        <v>0.9998133617767806</v>
       </c>
       <c r="S17">
-        <v>0.999219769866412</v>
+        <v>0.9998133617767806</v>
       </c>
       <c r="T17">
-        <v>0.9997489877335773</v>
+        <v>0.9999443283595109</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9964752838173615</v>
+        <v>0.9977346630137683</v>
       </c>
       <c r="D18">
-        <v>1.004169720352327</v>
+        <v>1.00281271969319</v>
       </c>
       <c r="E18">
-        <v>1.001691202788368</v>
+        <v>1.000971707765211</v>
       </c>
       <c r="F18">
-        <v>1.001606859427812</v>
+        <v>1.001026628349418</v>
       </c>
       <c r="G18">
-        <v>0.9935413284004607</v>
+        <v>0.9959138174707373</v>
       </c>
       <c r="H18">
-        <v>1.001572149530898</v>
+        <v>1.001049232646614</v>
       </c>
       <c r="I18">
-        <v>0.9935413284004607</v>
+        <v>0.9959138174707373</v>
       </c>
       <c r="J18">
-        <v>1.001691202788368</v>
+        <v>1.000971707765211</v>
       </c>
       <c r="K18">
-        <v>1.001691202788368</v>
+        <v>1.000971707765211</v>
       </c>
       <c r="L18">
-        <v>1.001572149530898</v>
+        <v>1.001049232646614</v>
       </c>
       <c r="M18">
-        <v>0.9975567389656794</v>
+        <v>0.9984815250586758</v>
       </c>
       <c r="N18">
-        <v>0.9975567389656794</v>
+        <v>0.9984815250586758</v>
       </c>
       <c r="O18">
-        <v>0.9971962539162401</v>
+        <v>0.9982325710437067</v>
       </c>
       <c r="P18">
-        <v>0.9989348935732423</v>
+        <v>0.9993115859608542</v>
       </c>
       <c r="Q18">
-        <v>0.9989348935732423</v>
+        <v>0.9993115859608542</v>
       </c>
       <c r="R18">
-        <v>0.9996239708770236</v>
+        <v>0.9997266164119434</v>
       </c>
       <c r="S18">
-        <v>0.9996239708770236</v>
+        <v>0.9997266164119434</v>
       </c>
       <c r="T18">
-        <v>0.9998427573862045</v>
+        <v>0.9999181281564899</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9959474260206778</v>
+        <v>0.9999875671176671</v>
       </c>
       <c r="D19">
-        <v>1.004767525148526</v>
+        <v>1.000014027259726</v>
       </c>
       <c r="E19">
-        <v>1.001967588878295</v>
+        <v>1.000006556675965</v>
       </c>
       <c r="F19">
-        <v>1.001848719965042</v>
+        <v>1.000005699154785</v>
       </c>
       <c r="G19">
-        <v>0.9925610805022589</v>
+        <v>0.9999768859397967</v>
       </c>
       <c r="H19">
-        <v>1.001799806848815</v>
+        <v>1.000005346970733</v>
       </c>
       <c r="I19">
-        <v>0.9925610805022589</v>
+        <v>0.9999768859397967</v>
       </c>
       <c r="J19">
-        <v>1.001967588878295</v>
+        <v>1.000006556675965</v>
       </c>
       <c r="K19">
-        <v>1.001967588878295</v>
+        <v>1.000006556675965</v>
       </c>
       <c r="L19">
-        <v>1.001799806848815</v>
+        <v>1.000005346970733</v>
       </c>
       <c r="M19">
-        <v>0.9971804436755368</v>
+        <v>0.9999911164552648</v>
       </c>
       <c r="N19">
-        <v>0.9971804436755368</v>
+        <v>0.9999911164552648</v>
       </c>
       <c r="O19">
-        <v>0.9967694377905838</v>
+        <v>0.9999899333427322</v>
       </c>
       <c r="P19">
-        <v>0.9987761587431226</v>
+        <v>0.9999962631954983</v>
       </c>
       <c r="Q19">
-        <v>0.9987761587431226</v>
+        <v>0.9999962631954983</v>
       </c>
       <c r="R19">
-        <v>0.9995740162769157</v>
+        <v>0.9999988365656149</v>
       </c>
       <c r="S19">
-        <v>0.9995740162769157</v>
+        <v>0.9999988365656149</v>
       </c>
       <c r="T19">
-        <v>0.9998153578939356</v>
+        <v>0.9999993471864457</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999981698492195</v>
+        <v>0.9999952658392978</v>
       </c>
       <c r="D20">
-        <v>0.999998716431275</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="E20">
-        <v>1.000003870245656</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="F20">
-        <v>1.000000992610678</v>
+        <v>1.000002258613509</v>
       </c>
       <c r="G20">
-        <v>0.9999949638095905</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="H20">
-        <v>0.9999998093001783</v>
+        <v>1.000001474286615</v>
       </c>
       <c r="I20">
-        <v>0.9999949638095905</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="J20">
-        <v>1.000003870245656</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="K20">
-        <v>1.000003870245656</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="L20">
-        <v>0.9999998093001783</v>
+        <v>1.000001474286615</v>
       </c>
       <c r="M20">
-        <v>0.9999973865548843</v>
+        <v>0.9999958668425053</v>
       </c>
       <c r="N20">
-        <v>0.9999973865548843</v>
+        <v>0.9999958668425053</v>
       </c>
       <c r="O20">
-        <v>0.999997647652996</v>
+        <v>0.9999956665081028</v>
       </c>
       <c r="P20">
-        <v>0.9999995477851416</v>
+        <v>0.9999986334087957</v>
       </c>
       <c r="Q20">
-        <v>0.9999995477851417</v>
+        <v>0.9999986334087957</v>
       </c>
       <c r="R20">
-        <v>1.00000062840027</v>
+        <v>1.000000016691941</v>
       </c>
       <c r="S20">
-        <v>1.00000062840027</v>
+        <v>1.000000016691941</v>
       </c>
       <c r="T20">
-        <v>0.9999994203744329</v>
+        <v>0.9999994735909404</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999635538634517</v>
+        <v>1.000042485614421</v>
       </c>
       <c r="D21">
-        <v>1.000047420499376</v>
+        <v>0.9999460386175759</v>
       </c>
       <c r="E21">
-        <v>1.000013752951584</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="F21">
-        <v>1.00001641725502</v>
+        <v>0.9999808016866253</v>
       </c>
       <c r="G21">
-        <v>0.9999353169479763</v>
+        <v>1.000076043867933</v>
       </c>
       <c r="H21">
-        <v>1.000017514546741</v>
+        <v>0.9999799690909666</v>
       </c>
       <c r="I21">
-        <v>0.9999353169479763</v>
+        <v>1.000076043867933</v>
       </c>
       <c r="J21">
-        <v>1.000013752951584</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="K21">
-        <v>1.000013752951584</v>
+        <v>0.9999828272186022</v>
       </c>
       <c r="L21">
-        <v>1.000017514546741</v>
+        <v>0.9999799690909666</v>
       </c>
       <c r="M21">
-        <v>0.9999764157473588</v>
+        <v>1.00002800647945</v>
       </c>
       <c r="N21">
-        <v>0.9999764157473588</v>
+        <v>1.00002800647945</v>
       </c>
       <c r="O21">
-        <v>0.9999721284527231</v>
+        <v>1.000032832857774</v>
       </c>
       <c r="P21">
-        <v>0.9999888614821005</v>
+        <v>1.000012946725834</v>
       </c>
       <c r="Q21">
-        <v>0.9999888614821005</v>
+        <v>1.000012946725834</v>
       </c>
       <c r="R21">
-        <v>0.9999950843494715</v>
+        <v>1.000005416849026</v>
       </c>
       <c r="S21">
-        <v>0.9999950843494715</v>
+        <v>1.000005416849026</v>
       </c>
       <c r="T21">
-        <v>0.9999989960106914</v>
+        <v>1.000001361016021</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9998712188031678</v>
+        <v>1.000047089612283</v>
       </c>
       <c r="D22">
-        <v>1.000151888687529</v>
+        <v>0.9999366642839626</v>
       </c>
       <c r="E22">
-        <v>1.000062189058848</v>
+        <v>0.9999840245778081</v>
       </c>
       <c r="F22">
-        <v>1.000058728993573</v>
+        <v>0.9999788838059116</v>
       </c>
       <c r="G22">
-        <v>0.9997637967278141</v>
+        <v>1.00008256550549</v>
       </c>
       <c r="H22">
-        <v>1.000057306075096</v>
+        <v>0.9999767667035414</v>
       </c>
       <c r="I22">
-        <v>0.9997637967278141</v>
+        <v>1.00008256550549</v>
       </c>
       <c r="J22">
-        <v>1.000062189058848</v>
+        <v>0.9999840245778081</v>
       </c>
       <c r="K22">
-        <v>1.000062189058848</v>
+        <v>0.9999840245778081</v>
       </c>
       <c r="L22">
-        <v>1.000057306075096</v>
+        <v>0.9999767667035414</v>
       </c>
       <c r="M22">
-        <v>0.9999105514014552</v>
+        <v>1.000029666104516</v>
       </c>
       <c r="N22">
-        <v>0.9999105514014552</v>
+        <v>1.000029666104516</v>
       </c>
       <c r="O22">
-        <v>0.9998974405353594</v>
+        <v>1.000035473940438</v>
       </c>
       <c r="P22">
-        <v>0.9999610972872528</v>
+        <v>1.00001445226228</v>
       </c>
       <c r="Q22">
-        <v>0.9999610972872528</v>
+        <v>1.00001445226228</v>
       </c>
       <c r="R22">
-        <v>0.9999863702301516</v>
+        <v>1.000006845341162</v>
       </c>
       <c r="S22">
-        <v>0.9999863702301516</v>
+        <v>1.000006845341162</v>
       </c>
       <c r="T22">
-        <v>0.9999941880576714</v>
+        <v>1.0000009990815</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00019005525738</v>
+      </c>
+      <c r="D23">
+        <v>0.9997612043993357</v>
+      </c>
+      <c r="E23">
+        <v>0.9999209240186009</v>
+      </c>
+      <c r="F23">
+        <v>0.9999139993826835</v>
+      </c>
+      <c r="G23">
+        <v>1.000341438385702</v>
+      </c>
+      <c r="H23">
+        <v>0.9999111535341664</v>
+      </c>
+      <c r="I23">
+        <v>1.000341438385702</v>
+      </c>
+      <c r="J23">
+        <v>0.9999209240186009</v>
+      </c>
+      <c r="K23">
+        <v>0.9999209240186009</v>
+      </c>
+      <c r="L23">
+        <v>0.9999111535341664</v>
+      </c>
+      <c r="M23">
+        <v>1.000126295959934</v>
+      </c>
+      <c r="N23">
+        <v>1.000126295959934</v>
+      </c>
+      <c r="O23">
+        <v>1.000147549059083</v>
+      </c>
+      <c r="P23">
+        <v>1.000057838646156</v>
+      </c>
+      <c r="Q23">
+        <v>1.000057838646156</v>
+      </c>
+      <c r="R23">
+        <v>1.000023609989267</v>
+      </c>
+      <c r="S23">
+        <v>1.000023609989267</v>
+      </c>
+      <c r="T23">
+        <v>1.000006462496311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.999282435739436</v>
+      </c>
+      <c r="D24">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="E24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="F24">
+        <v>1.000324559131633</v>
+      </c>
+      <c r="G24">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="H24">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="I24">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="J24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="K24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="L24">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="M24">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="N24">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="O24">
+        <v>0.9994436884479255</v>
+      </c>
+      <c r="P24">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="R24">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="S24">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="T24">
+        <v>0.9999760287858068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998045610426183</v>
+      </c>
+      <c r="D25">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="E25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="F25">
+        <v>1.000089609287539</v>
+      </c>
+      <c r="G25">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="H25">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="I25">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="J25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="K25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="L25">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="M25">
+        <v>0.9998602066226482</v>
+      </c>
+      <c r="N25">
+        <v>0.9998602066226482</v>
+      </c>
+      <c r="O25">
+        <v>0.9998416580959715</v>
+      </c>
+      <c r="P25">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="R25">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="S25">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="T25">
+        <v>0.9999896830273373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.068374821632422</v>
+      </c>
+      <c r="D26">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="E26">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="F26">
+        <v>0.9689087623183814</v>
+      </c>
+      <c r="G26">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="H26">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="I26">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="J26">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="K26">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="L26">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="M26">
+        <v>1.046719181207674</v>
+      </c>
+      <c r="N26">
+        <v>1.046719181207674</v>
+      </c>
+      <c r="O26">
+        <v>1.053937728015924</v>
+      </c>
+      <c r="P26">
+        <v>1.020712182991924</v>
+      </c>
+      <c r="Q26">
+        <v>1.020712182991924</v>
+      </c>
+      <c r="R26">
+        <v>1.007708683884049</v>
+      </c>
+      <c r="S26">
+        <v>1.007708683884049</v>
+      </c>
+      <c r="T26">
+        <v>1.002799643761305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.01821901744236</v>
+      </c>
+      <c r="D27">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="E27">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="F27">
+        <v>0.9917237199623146</v>
+      </c>
+      <c r="G27">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="H27">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="I27">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="J27">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="K27">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="L27">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="M27">
+        <v>1.012378821325417</v>
+      </c>
+      <c r="N27">
+        <v>1.012378821325417</v>
+      </c>
+      <c r="O27">
+        <v>1.014325553364398</v>
+      </c>
+      <c r="P27">
+        <v>1.00552414316082</v>
+      </c>
+      <c r="Q27">
+        <v>1.00552414316082</v>
+      </c>
+      <c r="R27">
+        <v>1.002096804078522</v>
+      </c>
+      <c r="S27">
+        <v>1.002096804078522</v>
+      </c>
+      <c r="T27">
+        <v>1.000720111452504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9918664140315151</v>
+      </c>
+      <c r="D28">
+        <v>1.010084172450054</v>
+      </c>
+      <c r="E28">
+        <v>1.003501669070067</v>
+      </c>
+      <c r="F28">
+        <v>1.003686738292325</v>
+      </c>
+      <c r="G28">
+        <v>0.9853215821751267</v>
+      </c>
+      <c r="H28">
+        <v>1.003762905506334</v>
+      </c>
+      <c r="I28">
+        <v>0.9853215821751267</v>
+      </c>
+      <c r="J28">
+        <v>1.003501669070067</v>
+      </c>
+      <c r="K28">
+        <v>1.003501669070067</v>
+      </c>
+      <c r="L28">
+        <v>1.003762905506334</v>
+      </c>
+      <c r="M28">
+        <v>0.9945422438407302</v>
+      </c>
+      <c r="N28">
+        <v>0.9945422438407302</v>
+      </c>
+      <c r="O28">
+        <v>0.9936503005709918</v>
+      </c>
+      <c r="P28">
+        <v>0.9975287189171759</v>
+      </c>
+      <c r="Q28">
+        <v>0.9975287189171759</v>
+      </c>
+      <c r="R28">
+        <v>0.9990219564553986</v>
+      </c>
+      <c r="S28">
+        <v>0.9990219564553986</v>
+      </c>
+      <c r="T28">
+        <v>0.9997039135875703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9933758044434539</v>
+      </c>
+      <c r="D29">
+        <v>1.008144461666858</v>
+      </c>
+      <c r="E29">
+        <v>1.002911128997334</v>
+      </c>
+      <c r="F29">
+        <v>1.003005709822839</v>
+      </c>
+      <c r="G29">
+        <v>0.9880121840586821</v>
+      </c>
+      <c r="H29">
+        <v>1.003044637412297</v>
+      </c>
+      <c r="I29">
+        <v>0.9880121840586821</v>
+      </c>
+      <c r="J29">
+        <v>1.002911128997334</v>
+      </c>
+      <c r="K29">
+        <v>1.002911128997334</v>
+      </c>
+      <c r="L29">
+        <v>1.003044637412297</v>
+      </c>
+      <c r="M29">
+        <v>0.9955284107354894</v>
+      </c>
+      <c r="N29">
+        <v>0.9955284107354894</v>
+      </c>
+      <c r="O29">
+        <v>0.9948108753048109</v>
+      </c>
+      <c r="P29">
+        <v>0.9979893168227711</v>
+      </c>
+      <c r="Q29">
+        <v>0.9979893168227711</v>
+      </c>
+      <c r="R29">
+        <v>0.999219769866412</v>
+      </c>
+      <c r="S29">
+        <v>0.999219769866412</v>
+      </c>
+      <c r="T29">
+        <v>0.9997489877335773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9964752838173615</v>
+      </c>
+      <c r="D30">
+        <v>1.004169720352327</v>
+      </c>
+      <c r="E30">
+        <v>1.001691202788368</v>
+      </c>
+      <c r="F30">
+        <v>1.001606859427812</v>
+      </c>
+      <c r="G30">
+        <v>0.9935413284004607</v>
+      </c>
+      <c r="H30">
+        <v>1.001572149530898</v>
+      </c>
+      <c r="I30">
+        <v>0.9935413284004607</v>
+      </c>
+      <c r="J30">
+        <v>1.001691202788368</v>
+      </c>
+      <c r="K30">
+        <v>1.001691202788368</v>
+      </c>
+      <c r="L30">
+        <v>1.001572149530898</v>
+      </c>
+      <c r="M30">
+        <v>0.9975567389656794</v>
+      </c>
+      <c r="N30">
+        <v>0.9975567389656794</v>
+      </c>
+      <c r="O30">
+        <v>0.9971962539162401</v>
+      </c>
+      <c r="P30">
+        <v>0.9989348935732423</v>
+      </c>
+      <c r="Q30">
+        <v>0.9989348935732423</v>
+      </c>
+      <c r="R30">
+        <v>0.9996239708770236</v>
+      </c>
+      <c r="S30">
+        <v>0.9996239708770236</v>
+      </c>
+      <c r="T30">
+        <v>0.9998427573862045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9959474260206778</v>
+      </c>
+      <c r="D31">
+        <v>1.004767525148526</v>
+      </c>
+      <c r="E31">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="F31">
+        <v>1.001848719965042</v>
+      </c>
+      <c r="G31">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="H31">
+        <v>1.001799806848815</v>
+      </c>
+      <c r="I31">
+        <v>0.9925610805022589</v>
+      </c>
+      <c r="J31">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="K31">
+        <v>1.001967588878295</v>
+      </c>
+      <c r="L31">
+        <v>1.001799806848815</v>
+      </c>
+      <c r="M31">
+        <v>0.9971804436755368</v>
+      </c>
+      <c r="N31">
+        <v>0.9971804436755368</v>
+      </c>
+      <c r="O31">
+        <v>0.9967694377905838</v>
+      </c>
+      <c r="P31">
+        <v>0.9987761587431226</v>
+      </c>
+      <c r="Q31">
+        <v>0.9987761587431226</v>
+      </c>
+      <c r="R31">
+        <v>0.9995740162769157</v>
+      </c>
+      <c r="S31">
+        <v>0.9995740162769157</v>
+      </c>
+      <c r="T31">
+        <v>0.9998153578939356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9919073386301372</v>
+      </c>
+      <c r="D32">
+        <v>1.010148663835616</v>
+      </c>
+      <c r="E32">
+        <v>1.003384094246575</v>
+      </c>
+      <c r="F32">
+        <v>1.003662896986302</v>
+      </c>
+      <c r="G32">
+        <v>0.98545166109589</v>
+      </c>
+      <c r="H32">
+        <v>1.003777639178082</v>
+      </c>
+      <c r="I32">
+        <v>0.98545166109589</v>
+      </c>
+      <c r="J32">
+        <v>1.003384094246575</v>
+      </c>
+      <c r="K32">
+        <v>1.003384094246575</v>
+      </c>
+      <c r="L32">
+        <v>1.003777639178082</v>
+      </c>
+      <c r="M32">
+        <v>0.9946146501369861</v>
+      </c>
+      <c r="N32">
+        <v>0.9946146501369861</v>
+      </c>
+      <c r="O32">
+        <v>0.9937122129680365</v>
+      </c>
+      <c r="P32">
+        <v>0.9975377981735157</v>
+      </c>
+      <c r="Q32">
+        <v>0.997537798173516</v>
+      </c>
+      <c r="R32">
+        <v>0.9989993721917807</v>
+      </c>
+      <c r="S32">
+        <v>0.9989993721917807</v>
+      </c>
+      <c r="T32">
+        <v>0.9997220489954337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.035184897894737</v>
+      </c>
+      <c r="D33">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="E33">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="F33">
+        <v>0.9840184273684212</v>
+      </c>
+      <c r="G33">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="H33">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="I33">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="J33">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="K33">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="L33">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="M33">
+        <v>1.023891542631579</v>
+      </c>
+      <c r="N33">
+        <v>1.023891542631579</v>
+      </c>
+      <c r="O33">
+        <v>1.027655994385965</v>
+      </c>
+      <c r="P33">
+        <v>1.010669421754386</v>
+      </c>
+      <c r="Q33">
+        <v>1.010669421754386</v>
+      </c>
+      <c r="R33">
+        <v>1.004058361315789</v>
+      </c>
+      <c r="S33">
+        <v>1.004058361315789</v>
+      </c>
+      <c r="T33">
+        <v>1.001385262280702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9929029810526314</v>
+      </c>
+      <c r="D34">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="E34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="F34">
+        <v>1.003211843684211</v>
+      </c>
+      <c r="G34">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="H34">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="I34">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="J34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="K34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L34">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="M34">
+        <v>0.9952806555263156</v>
+      </c>
+      <c r="N34">
+        <v>0.9952806555263156</v>
+      </c>
+      <c r="O34">
+        <v>0.9944880973684209</v>
+      </c>
+      <c r="P34">
+        <v>0.9978404663157893</v>
+      </c>
+      <c r="Q34">
+        <v>0.9978404663157893</v>
+      </c>
+      <c r="R34">
+        <v>0.9991203717105261</v>
+      </c>
+      <c r="S34">
+        <v>0.9991203717105261</v>
+      </c>
+      <c r="T34">
+        <v>0.9997575213157894</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9853160059928749</v>
+      </c>
+      <c r="D35">
+        <v>1.01721061867366</v>
+      </c>
+      <c r="E35">
+        <v>1.007184772046092</v>
+      </c>
+      <c r="F35">
+        <v>1.006701540055496</v>
+      </c>
+      <c r="G35">
+        <v>0.9730148195252727</v>
+      </c>
+      <c r="H35">
+        <v>1.006502703327612</v>
+      </c>
+      <c r="I35">
+        <v>0.9730148195252727</v>
+      </c>
+      <c r="J35">
+        <v>1.007184772046092</v>
+      </c>
+      <c r="K35">
+        <v>1.007184772046092</v>
+      </c>
+      <c r="L35">
+        <v>1.006502703327612</v>
+      </c>
+      <c r="M35">
+        <v>0.9897587614264425</v>
+      </c>
+      <c r="N35">
+        <v>0.9897587614264425</v>
+      </c>
+      <c r="O35">
+        <v>0.9882778429485866</v>
+      </c>
+      <c r="P35">
+        <v>0.9955674316329923</v>
+      </c>
+      <c r="Q35">
+        <v>0.9955674316329922</v>
+      </c>
+      <c r="R35">
+        <v>0.9984717667362671</v>
+      </c>
+      <c r="S35">
+        <v>0.9984717667362671</v>
+      </c>
+      <c r="T35">
+        <v>0.9993217432701678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999981698492195</v>
+      </c>
+      <c r="D36">
+        <v>0.999998716431275</v>
+      </c>
+      <c r="E36">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="F36">
+        <v>1.000000992610678</v>
+      </c>
+      <c r="G36">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="H36">
+        <v>0.9999998093001783</v>
+      </c>
+      <c r="I36">
+        <v>0.9999949638095905</v>
+      </c>
+      <c r="J36">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="K36">
+        <v>1.000003870245656</v>
+      </c>
+      <c r="L36">
+        <v>0.9999998093001783</v>
+      </c>
+      <c r="M36">
+        <v>0.9999973865548843</v>
+      </c>
+      <c r="N36">
+        <v>0.9999973865548843</v>
+      </c>
+      <c r="O36">
+        <v>0.999997647652996</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995477851416</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999995477851417</v>
+      </c>
+      <c r="R36">
+        <v>1.00000062840027</v>
+      </c>
+      <c r="S36">
+        <v>1.00000062840027</v>
+      </c>
+      <c r="T36">
+        <v>0.9999994203744329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999635538634517</v>
+      </c>
+      <c r="D37">
+        <v>1.000047420499376</v>
+      </c>
+      <c r="E37">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="F37">
+        <v>1.00001641725502</v>
+      </c>
+      <c r="G37">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="H37">
+        <v>1.000017514546741</v>
+      </c>
+      <c r="I37">
+        <v>0.9999353169479763</v>
+      </c>
+      <c r="J37">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="K37">
+        <v>1.000013752951584</v>
+      </c>
+      <c r="L37">
+        <v>1.000017514546741</v>
+      </c>
+      <c r="M37">
+        <v>0.9999764157473588</v>
+      </c>
+      <c r="N37">
+        <v>0.9999764157473588</v>
+      </c>
+      <c r="O37">
+        <v>0.9999721284527231</v>
+      </c>
+      <c r="P37">
+        <v>0.9999888614821005</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999888614821005</v>
+      </c>
+      <c r="R37">
+        <v>0.9999950843494715</v>
+      </c>
+      <c r="S37">
+        <v>0.9999950843494715</v>
+      </c>
+      <c r="T37">
+        <v>0.9999989960106914</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9998712188031678</v>
+      </c>
+      <c r="D38">
+        <v>1.000151888687529</v>
+      </c>
+      <c r="E38">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="F38">
+        <v>1.000058728993573</v>
+      </c>
+      <c r="G38">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="H38">
+        <v>1.000057306075096</v>
+      </c>
+      <c r="I38">
+        <v>0.9997637967278141</v>
+      </c>
+      <c r="J38">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="K38">
+        <v>1.000062189058848</v>
+      </c>
+      <c r="L38">
+        <v>1.000057306075096</v>
+      </c>
+      <c r="M38">
+        <v>0.9999105514014552</v>
+      </c>
+      <c r="N38">
+        <v>0.9999105514014552</v>
+      </c>
+      <c r="O38">
+        <v>0.9998974405353594</v>
+      </c>
+      <c r="P38">
+        <v>0.9999610972872528</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999610972872528</v>
+      </c>
+      <c r="R38">
+        <v>0.9999863702301516</v>
+      </c>
+      <c r="S38">
+        <v>0.9999863702301516</v>
+      </c>
+      <c r="T38">
+        <v>0.9999941880576714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9996980746796682</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000348418772762</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000152464205067</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000138044698857</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9994424800133056</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000132109605388</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994424800133056</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000152464205067</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000152464205067</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000132109605388</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997872948093469</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9997872948093469</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997575547661207</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999090179412535</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999090179412535</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999698795072068</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999698795072068</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999852653291746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9976248587877149</v>
+      </c>
+      <c r="D40">
+        <v>1.00277958868162</v>
+      </c>
+      <c r="E40">
+        <v>1.001165814238852</v>
+      </c>
+      <c r="F40">
+        <v>1.001084172227497</v>
+      </c>
+      <c r="G40">
+        <v>0.9956330716692584</v>
+      </c>
+      <c r="H40">
+        <v>1.001050576334443</v>
+      </c>
+      <c r="I40">
+        <v>0.9956330716692584</v>
+      </c>
+      <c r="J40">
+        <v>1.001165814238852</v>
+      </c>
+      <c r="K40">
+        <v>1.001165814238852</v>
+      </c>
+      <c r="L40">
+        <v>1.001050576334443</v>
+      </c>
+      <c r="M40">
+        <v>0.9983418240018509</v>
+      </c>
+      <c r="N40">
+        <v>0.9983418240018509</v>
+      </c>
+      <c r="O40">
+        <v>0.9981028355971389</v>
+      </c>
+      <c r="P40">
+        <v>0.9992831540808513</v>
+      </c>
+      <c r="Q40">
+        <v>0.9992831540808513</v>
+      </c>
+      <c r="R40">
+        <v>0.9997538191203514</v>
+      </c>
+      <c r="S40">
+        <v>0.9997538191203514</v>
+      </c>
+      <c r="T40">
+        <v>0.9998896803232311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9884235776093633</v>
+      </c>
+      <c r="D41">
+        <v>1.014025636889133</v>
+      </c>
+      <c r="E41">
+        <v>1.005267555457753</v>
+      </c>
+      <c r="F41">
+        <v>1.005262304154073</v>
+      </c>
+      <c r="G41">
+        <v>0.9789488385696962</v>
+      </c>
+      <c r="H41">
+        <v>1.005260143856291</v>
+      </c>
+      <c r="I41">
+        <v>0.9789488385696962</v>
+      </c>
+      <c r="J41">
+        <v>1.005267555457753</v>
+      </c>
+      <c r="K41">
+        <v>1.005267555457753</v>
+      </c>
+      <c r="L41">
+        <v>1.005260143856291</v>
+      </c>
+      <c r="M41">
+        <v>0.9921044912129937</v>
+      </c>
+      <c r="N41">
+        <v>0.9921044912129937</v>
+      </c>
+      <c r="O41">
+        <v>0.9908775200117835</v>
+      </c>
+      <c r="P41">
+        <v>0.9964921792945801</v>
+      </c>
+      <c r="Q41">
+        <v>0.9964921792945801</v>
+      </c>
+      <c r="R41">
+        <v>0.9986860233353734</v>
+      </c>
+      <c r="S41">
+        <v>0.9986860233353734</v>
+      </c>
+      <c r="T41">
+        <v>0.9995313427560517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9838530902166918</v>
+      </c>
+      <c r="D42">
+        <v>1.019577944782244</v>
+      </c>
+      <c r="E42">
+        <v>1.007334359798922</v>
+      </c>
+      <c r="F42">
+        <v>1.007339232263178</v>
+      </c>
+      <c r="G42">
+        <v>0.9706448737235179</v>
+      </c>
+      <c r="H42">
+        <v>1.007341240652009</v>
+      </c>
+      <c r="I42">
+        <v>0.9706448737235179</v>
+      </c>
+      <c r="J42">
+        <v>1.007334359798922</v>
+      </c>
+      <c r="K42">
+        <v>1.007334359798922</v>
+      </c>
+      <c r="L42">
+        <v>1.007341240652009</v>
+      </c>
+      <c r="M42">
+        <v>0.9889930571877634</v>
+      </c>
+      <c r="N42">
+        <v>0.9889930571877634</v>
+      </c>
+      <c r="O42">
+        <v>0.9872797348640728</v>
+      </c>
+      <c r="P42">
+        <v>0.9951068247248163</v>
+      </c>
+      <c r="Q42">
+        <v>0.9951068247248163</v>
+      </c>
+      <c r="R42">
+        <v>0.9981637084933428</v>
+      </c>
+      <c r="S42">
+        <v>0.9981637084933428</v>
+      </c>
+      <c r="T42">
+        <v>0.9993484569060938</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000178242900643</v>
+        <v>0.9999952658392978</v>
       </c>
       <c r="D3">
-        <v>0.9992474495261399</v>
+        <v>1.000003416866449</v>
       </c>
       <c r="E3">
-        <v>1.000193635630451</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="F3">
-        <v>1.000178242900643</v>
+        <v>1.000002258613509</v>
       </c>
       <c r="G3">
-        <v>1.000519291939382</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="H3">
-        <v>0.9995825351295931</v>
+        <v>1.000001474286615</v>
       </c>
       <c r="I3">
-        <v>1.000189147132662</v>
+        <v>0.9999902593983959</v>
       </c>
       <c r="J3">
-        <v>0.9992474495261399</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="K3">
-        <v>1.000178242900643</v>
+        <v>1.000004166541377</v>
       </c>
       <c r="L3">
-        <v>1.000193635630451</v>
+        <v>1.000001474286615</v>
       </c>
       <c r="M3">
-        <v>0.9997205425782955</v>
+        <v>0.9999958668425053</v>
       </c>
       <c r="N3">
-        <v>0.9997205425782955</v>
+        <v>0.9999958668425053</v>
       </c>
       <c r="O3">
-        <v>0.9996745400953947</v>
+        <v>0.9999956665081028</v>
       </c>
       <c r="P3">
-        <v>0.9998731093524111</v>
+        <v>0.9999986334087957</v>
       </c>
       <c r="Q3">
-        <v>0.9998731093524111</v>
+        <v>0.9999986334087957</v>
       </c>
       <c r="R3">
-        <v>0.9999493927394689</v>
+        <v>1.000000016691941</v>
       </c>
       <c r="S3">
-        <v>0.9999493927394689</v>
+        <v>1.000000016691941</v>
       </c>
       <c r="T3">
-        <v>0.9999850503764783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999994735909404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000343820203205</v>
+        <v>0.9976248587877149</v>
       </c>
       <c r="D4">
-        <v>0.9985473785823196</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="E4">
-        <v>1.000373896833696</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="F4">
-        <v>1.000343820203205</v>
+        <v>1.001084172227497</v>
       </c>
       <c r="G4">
-        <v>1.001002788579844</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="H4">
-        <v>0.9991940996657495</v>
+        <v>1.001050576334443</v>
       </c>
       <c r="I4">
-        <v>1.000365126960484</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="J4">
-        <v>0.9985473785823196</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="K4">
-        <v>1.000343820203205</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="L4">
-        <v>1.000373896833696</v>
+        <v>1.001050576334443</v>
       </c>
       <c r="M4">
-        <v>0.9994606377080076</v>
+        <v>0.9983418240018509</v>
       </c>
       <c r="N4">
-        <v>0.9994606377080076</v>
+        <v>0.9983418240018509</v>
       </c>
       <c r="O4">
-        <v>0.9993717916939215</v>
+        <v>0.9981028355971389</v>
       </c>
       <c r="P4">
-        <v>0.9997550318730735</v>
+        <v>0.9992831540808513</v>
       </c>
       <c r="Q4">
-        <v>0.9997550318730735</v>
+        <v>0.9992831540808513</v>
       </c>
       <c r="R4">
-        <v>0.9999022289556064</v>
+        <v>0.9997538191203514</v>
       </c>
       <c r="S4">
-        <v>0.9999022289556064</v>
+        <v>0.9997538191203514</v>
       </c>
       <c r="T4">
-        <v>0.9999711851375497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9998896803232311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000661617207717</v>
+        <v>0.9955868407204626</v>
       </c>
       <c r="D5">
-        <v>0.9972145536025339</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="E5">
-        <v>1.000715659089154</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="F5">
-        <v>1.000661617207717</v>
+        <v>1.002011187802594</v>
       </c>
       <c r="G5">
-        <v>1.001918733648645</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="H5">
-        <v>0.998455498963</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="I5">
-        <v>1.000699907646015</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="J5">
-        <v>0.9972145536025339</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="K5">
-        <v>1.000661617207717</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="L5">
-        <v>1.000715659089154</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="M5">
-        <v>0.9989651063458438</v>
+        <v>0.996946791286023</v>
       </c>
       <c r="N5">
-        <v>0.9989651063458438</v>
+        <v>0.996946791286023</v>
       </c>
       <c r="O5">
-        <v>0.9987952372182293</v>
+        <v>0.9964934744308361</v>
       </c>
       <c r="P5">
-        <v>0.9995306099664684</v>
+        <v>0.9986659818395772</v>
       </c>
       <c r="Q5">
-        <v>0.9995306099664684</v>
+        <v>0.9986659818395772</v>
       </c>
       <c r="R5">
-        <v>0.9998133617767806</v>
+        <v>0.9995255771163545</v>
       </c>
       <c r="S5">
-        <v>0.9998133617767806</v>
+        <v>0.9995255771163545</v>
       </c>
       <c r="T5">
-        <v>0.9999443283595109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9998053081111915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000971707765211</v>
+        <v>0.9853160059928749</v>
       </c>
       <c r="D6">
-        <v>0.9959138174707373</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="E6">
-        <v>1.001049232646615</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="F6">
-        <v>1.000971707765211</v>
+        <v>1.006701540055496</v>
       </c>
       <c r="G6">
-        <v>1.00281271969319</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="H6">
-        <v>0.9977346630137683</v>
+        <v>1.006502703327612</v>
       </c>
       <c r="I6">
-        <v>1.001026628349418</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="J6">
-        <v>0.9959138174707373</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="K6">
-        <v>1.000971707765211</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="L6">
-        <v>1.001049232646615</v>
+        <v>1.006502703327612</v>
       </c>
       <c r="M6">
-        <v>0.998481525058676</v>
+        <v>0.9897587614264425</v>
       </c>
       <c r="N6">
-        <v>0.998481525058676</v>
+        <v>0.9897587614264425</v>
       </c>
       <c r="O6">
-        <v>0.9982325710437068</v>
+        <v>0.9882778429485866</v>
       </c>
       <c r="P6">
-        <v>0.9993115859608542</v>
+        <v>0.9955674316329923</v>
       </c>
       <c r="Q6">
-        <v>0.9993115859608545</v>
+        <v>0.9955674316329922</v>
       </c>
       <c r="R6">
-        <v>0.9997266164119436</v>
+        <v>0.9984717667362671</v>
       </c>
       <c r="S6">
-        <v>0.9997266164119436</v>
+        <v>0.9984717667362671</v>
       </c>
       <c r="T6">
-        <v>0.9999181281564899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9993217432701678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000006556675965</v>
+        <v>0.9995144862129347</v>
       </c>
       <c r="D7">
-        <v>0.9999768859397969</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="E7">
-        <v>1.000005346970733</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="F7">
-        <v>1.000006556675965</v>
+        <v>1.000219955598957</v>
       </c>
       <c r="G7">
-        <v>1.000014027259726</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="H7">
-        <v>0.9999875671176671</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="I7">
-        <v>1.000005699154785</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="J7">
-        <v>0.9999768859397969</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="K7">
-        <v>1.000006556675965</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="L7">
-        <v>1.000005346970733</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="M7">
-        <v>0.9999911164552651</v>
+        <v>0.9996751915806317</v>
       </c>
       <c r="N7">
-        <v>0.9999911164552651</v>
+        <v>0.9996751915806317</v>
       </c>
       <c r="O7">
-        <v>0.9999899333427323</v>
+        <v>0.9996216231247327</v>
       </c>
       <c r="P7">
-        <v>0.9999962631954983</v>
+        <v>0.9998524105201562</v>
       </c>
       <c r="Q7">
-        <v>0.9999962631954983</v>
+        <v>0.9998524105201562</v>
       </c>
       <c r="R7">
-        <v>0.9999988365656149</v>
+        <v>0.9999410199899184</v>
       </c>
       <c r="S7">
-        <v>0.9999988365656149</v>
+        <v>0.9999410199899184</v>
       </c>
       <c r="T7">
-        <v>0.9999993471864457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999826884497024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000004166541377</v>
+        <v>0.9999635538634517</v>
       </c>
       <c r="D8">
-        <v>0.9999902593983959</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="E8">
-        <v>1.000001474286615</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="F8">
-        <v>1.000004166541377</v>
+        <v>1.00001641725502</v>
       </c>
       <c r="G8">
-        <v>1.00000341686645</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="H8">
-        <v>0.9999952658392975</v>
+        <v>1.000017514546741</v>
       </c>
       <c r="I8">
-        <v>1.000002258613509</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="J8">
-        <v>0.9999902593983959</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="K8">
-        <v>1.000004166541377</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="L8">
-        <v>1.000001474286615</v>
+        <v>1.000017514546741</v>
       </c>
       <c r="M8">
-        <v>0.9999958668425053</v>
+        <v>0.9999764157473588</v>
       </c>
       <c r="N8">
-        <v>0.9999958668425053</v>
+        <v>0.9999764157473588</v>
       </c>
       <c r="O8">
-        <v>0.9999956665081027</v>
+        <v>0.9999721284527231</v>
       </c>
       <c r="P8">
-        <v>0.9999986334087957</v>
+        <v>0.9999888614821005</v>
       </c>
       <c r="Q8">
-        <v>0.9999986334087957</v>
+        <v>0.9999888614821005</v>
       </c>
       <c r="R8">
-        <v>1.000000016691941</v>
+        <v>0.9999950843494715</v>
       </c>
       <c r="S8">
-        <v>1.000000016691941</v>
+        <v>0.9999950843494715</v>
       </c>
       <c r="T8">
-        <v>0.9999994735909404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999989960106914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999982827218602</v>
+        <v>0.9991940996657495</v>
       </c>
       <c r="D9">
-        <v>1.000076043867933</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="E9">
-        <v>0.9999799690909666</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="F9">
-        <v>0.999982827218602</v>
+        <v>1.000365126960484</v>
       </c>
       <c r="G9">
-        <v>0.9999460386175761</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="H9">
-        <v>1.000042485614421</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="I9">
-        <v>0.9999808016866253</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="J9">
-        <v>1.000076043867933</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="K9">
-        <v>0.999982827218602</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="L9">
-        <v>0.9999799690909666</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="M9">
-        <v>1.00002800647945</v>
+        <v>0.9994606377080076</v>
       </c>
       <c r="N9">
-        <v>1.00002800647945</v>
+        <v>0.9994606377080076</v>
       </c>
       <c r="O9">
-        <v>1.000032832857773</v>
+        <v>0.9993717916939215</v>
       </c>
       <c r="P9">
-        <v>1.000012946725834</v>
+        <v>0.9997550318730735</v>
       </c>
       <c r="Q9">
-        <v>1.000012946725834</v>
+        <v>0.9997550318730735</v>
       </c>
       <c r="R9">
-        <v>1.000005416849026</v>
+        <v>0.9999022289556064</v>
       </c>
       <c r="S9">
-        <v>1.000005416849026</v>
+        <v>0.9999022289556064</v>
       </c>
       <c r="T9">
-        <v>1.000001361016021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999711851375497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999840245778081</v>
+        <v>0.9850964089928627</v>
       </c>
       <c r="D10">
-        <v>1.00008256550549</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="E10">
-        <v>0.9999767667035414</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="F10">
-        <v>0.9999840245778081</v>
+        <v>1.006802198325967</v>
       </c>
       <c r="G10">
-        <v>0.9999366642839623</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="H10">
-        <v>1.000047089612283</v>
+        <v>1.006597163777313</v>
       </c>
       <c r="I10">
-        <v>0.9999788838059116</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="J10">
-        <v>1.00008256550549</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="K10">
-        <v>0.9999840245778081</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="L10">
-        <v>0.9999767667035414</v>
+        <v>1.006597163777313</v>
       </c>
       <c r="M10">
-        <v>1.000029666104516</v>
+        <v>0.9896018854382933</v>
       </c>
       <c r="N10">
-        <v>1.000029666104516</v>
+        <v>0.9896018854382933</v>
       </c>
       <c r="O10">
-        <v>1.000035473940438</v>
+        <v>0.9881000599564831</v>
       </c>
       <c r="P10">
-        <v>1.00001445226228</v>
+        <v>0.9955014209119017</v>
       </c>
       <c r="Q10">
-        <v>1.00001445226228</v>
+        <v>0.9955014209119017</v>
       </c>
       <c r="R10">
-        <v>1.000006845341162</v>
+        <v>0.998451188648706</v>
       </c>
       <c r="S10">
-        <v>1.000006845341162</v>
+        <v>0.998451188648706</v>
       </c>
       <c r="T10">
-        <v>1.000000999081499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9993102223370688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999209240186009</v>
+        <v>0.9840028649830238</v>
       </c>
       <c r="D11">
-        <v>1.000341438385702</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="E11">
-        <v>0.9999111535341664</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="F11">
-        <v>0.9999209240186009</v>
+        <v>1.007275741159616</v>
       </c>
       <c r="G11">
-        <v>0.9997612043993357</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="H11">
-        <v>1.00019005525738</v>
+        <v>1.007243956402805</v>
       </c>
       <c r="I11">
-        <v>0.9999139993826838</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="J11">
-        <v>1.000341438385702</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="K11">
-        <v>0.9999209240186009</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="L11">
-        <v>0.9999111535341664</v>
+        <v>1.007243956402805</v>
       </c>
       <c r="M11">
-        <v>1.000126295959934</v>
+        <v>0.9890561892087371</v>
       </c>
       <c r="N11">
-        <v>1.000126295959934</v>
+        <v>0.9890561892087371</v>
       </c>
       <c r="O11">
-        <v>1.000147549059083</v>
+        <v>0.9873717478001659</v>
       </c>
       <c r="P11">
-        <v>1.000057838646156</v>
+        <v>0.995155121001089</v>
       </c>
       <c r="Q11">
-        <v>1.000057838646156</v>
+        <v>0.995155121001089</v>
       </c>
       <c r="R11">
-        <v>1.000023609989267</v>
+        <v>0.998204586897265</v>
       </c>
       <c r="S11">
-        <v>1.000023609989267</v>
+        <v>0.998204586897265</v>
       </c>
       <c r="T11">
-        <v>1.000006462496311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.999340070019214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000296024782096</v>
+        <v>0.9949927510947376</v>
       </c>
       <c r="D12">
-        <v>0.998712304105885</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="E12">
-        <v>1.000336325498456</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="F12">
-        <v>1.000296024782096</v>
+        <v>1.002284271242104</v>
       </c>
       <c r="G12">
-        <v>1.000904523457336</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="H12">
-        <v>0.9992824357394356</v>
+        <v>1.00222352711579</v>
       </c>
       <c r="I12">
-        <v>1.000324559131633</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="J12">
-        <v>0.998712304105885</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="K12">
-        <v>1.000296024782096</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="L12">
-        <v>1.000336325498456</v>
+        <v>1.00222352711579</v>
       </c>
       <c r="M12">
-        <v>0.9995243148021704</v>
+        <v>0.9965158821789479</v>
       </c>
       <c r="N12">
-        <v>0.9995243148021704</v>
+        <v>0.9965158821789479</v>
       </c>
       <c r="O12">
-        <v>0.9994436884479255</v>
+        <v>0.9960081718175445</v>
       </c>
       <c r="P12">
-        <v>0.9997815514621454</v>
+        <v>0.99848788471579</v>
       </c>
       <c r="Q12">
-        <v>0.9997815514621454</v>
+        <v>0.99848788471579</v>
       </c>
       <c r="R12">
-        <v>0.9999101697921331</v>
+        <v>0.9994738859842112</v>
       </c>
       <c r="S12">
-        <v>0.9999101697921331</v>
+        <v>0.9994738859842112</v>
       </c>
       <c r="T12">
-        <v>0.9999760287858068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9997717319789475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000103377191377</v>
+        <v>1.002928049607558</v>
       </c>
       <c r="D13">
-        <v>0.9996364740418495</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="E13">
-        <v>1.000083939203447</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="F13">
-        <v>1.000103377191377</v>
+        <v>0.9986683068913772</v>
       </c>
       <c r="G13">
-        <v>1.000220137397194</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="H13">
-        <v>0.9998045610426183</v>
+        <v>0.9986739051297188</v>
       </c>
       <c r="I13">
-        <v>1.000089609287539</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="J13">
-        <v>0.9996364740418495</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="K13">
-        <v>1.000103377191377</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="L13">
-        <v>1.000083939203447</v>
+        <v>0.9986739051297188</v>
       </c>
       <c r="M13">
-        <v>0.9998602066226482</v>
+        <v>1.002002854505443</v>
       </c>
       <c r="N13">
-        <v>0.9998602066226482</v>
+        <v>1.002002854505443</v>
       </c>
       <c r="O13">
-        <v>0.9998416580959715</v>
+        <v>1.002311252872815</v>
       </c>
       <c r="P13">
-        <v>0.9999412634788912</v>
+        <v>1.00088680618285</v>
       </c>
       <c r="Q13">
-        <v>0.9999412634788912</v>
+        <v>1.00088680618285</v>
       </c>
       <c r="R13">
-        <v>0.9999817919070126</v>
+        <v>1.000328782021553</v>
       </c>
       <c r="S13">
-        <v>0.9999817919070126</v>
+        <v>1.000328782021553</v>
       </c>
       <c r="T13">
-        <v>0.9999896830273373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000120696263016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9686981865604244</v>
+        <v>0.9742505199999987</v>
       </c>
       <c r="D14">
-        <v>1.124442944769613</v>
+        <v>1.0301398</v>
       </c>
       <c r="E14">
-        <v>0.968995417645736</v>
+        <v>1.012634</v>
       </c>
       <c r="F14">
-        <v>0.9686981865604244</v>
+        <v>1.011753499999999</v>
       </c>
       <c r="G14">
-        <v>0.9173777296412537</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="H14">
-        <v>1.068374821632422</v>
+        <v>1.0113912</v>
       </c>
       <c r="I14">
-        <v>0.9689087623183814</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="J14">
-        <v>1.124442944769613</v>
+        <v>1.012634</v>
       </c>
       <c r="K14">
-        <v>0.9686981865604244</v>
+        <v>1.012634</v>
       </c>
       <c r="L14">
-        <v>0.968995417645736</v>
+        <v>1.0113912</v>
       </c>
       <c r="M14">
-        <v>1.046719181207674</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="N14">
-        <v>1.046719181207674</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="O14">
-        <v>1.053937728015924</v>
+        <v>0.9794338399999994</v>
       </c>
       <c r="P14">
-        <v>1.020712182991924</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="Q14">
-        <v>1.020712182991924</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="R14">
-        <v>1.007708683884049</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="S14">
-        <v>1.007708683884049</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="T14">
-        <v>1.002799643761305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9988048033333327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.991814786831627</v>
+        <v>1.1028898</v>
       </c>
       <c r="D15">
-        <v>1.033071397338449</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="E15">
-        <v>0.9916862453123849</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="F15">
-        <v>0.991814786831627</v>
+        <v>0.95320164</v>
       </c>
       <c r="G15">
-        <v>0.9778055018278902</v>
+        <v>1.1873941</v>
       </c>
       <c r="H15">
-        <v>1.01821901744236</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="I15">
-        <v>0.9917237199623146</v>
+        <v>1.1873941</v>
       </c>
       <c r="J15">
-        <v>1.033071397338449</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K15">
-        <v>0.991814786831627</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="L15">
-        <v>0.9916862453123849</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="M15">
-        <v>1.012378821325417</v>
+        <v>1.07040936</v>
       </c>
       <c r="N15">
-        <v>1.012378821325417</v>
+        <v>1.07040936</v>
       </c>
       <c r="O15">
-        <v>1.014325553364398</v>
+        <v>1.081236173333333</v>
       </c>
       <c r="P15">
-        <v>1.00552414316082</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="Q15">
-        <v>1.00552414316082</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="R15">
-        <v>1.002096804078522</v>
+        <v>1.01153458</v>
       </c>
       <c r="S15">
-        <v>1.002096804078522</v>
+        <v>1.01153458</v>
       </c>
       <c r="T15">
-        <v>1.000720111452504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.004252436666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000003870245656</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="D16">
-        <v>0.9999949638095905</v>
+        <v>1.0301398</v>
       </c>
       <c r="E16">
-        <v>0.9999998093001783</v>
+        <v>1.012634</v>
       </c>
       <c r="F16">
-        <v>1.000003870245656</v>
+        <v>1.0117535</v>
       </c>
       <c r="G16">
-        <v>0.999998716431275</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H16">
-        <v>0.9999981698492193</v>
+        <v>1.0113912</v>
       </c>
       <c r="I16">
-        <v>1.000000992610678</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J16">
-        <v>0.9999949638095905</v>
+        <v>1.012634</v>
       </c>
       <c r="K16">
-        <v>1.000003870245656</v>
+        <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>0.9999998093001783</v>
+        <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>0.9999973865548843</v>
+        <v>0.9820255</v>
       </c>
       <c r="N16">
-        <v>0.9999973865548843</v>
+        <v>0.9820255</v>
       </c>
       <c r="O16">
-        <v>0.999997647652996</v>
+        <v>0.97943384</v>
       </c>
       <c r="P16">
-        <v>0.9999995477851416</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999995477851417</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R16">
-        <v>1.00000062840027</v>
+        <v>0.99732975</v>
       </c>
       <c r="S16">
-        <v>1.00000062840027</v>
+        <v>0.99732975</v>
       </c>
       <c r="T16">
-        <v>0.9999994203744329</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000013752951584</v>
+        <v>1.07073</v>
       </c>
       <c r="D17">
-        <v>0.9999353169479764</v>
+        <v>0.91449344</v>
       </c>
       <c r="E17">
-        <v>1.000017514546741</v>
+        <v>0.96765335</v>
       </c>
       <c r="F17">
-        <v>1.000013752951584</v>
+        <v>0.96783961</v>
       </c>
       <c r="G17">
-        <v>1.000047420499376</v>
+        <v>1.1287105</v>
       </c>
       <c r="H17">
-        <v>0.9999635538634517</v>
+        <v>0.96791626</v>
       </c>
       <c r="I17">
-        <v>1.00001641725502</v>
+        <v>1.1287105</v>
       </c>
       <c r="J17">
-        <v>0.9999353169479764</v>
+        <v>0.96765335</v>
       </c>
       <c r="K17">
-        <v>1.000013752951584</v>
+        <v>0.96765335</v>
       </c>
       <c r="L17">
-        <v>1.000017514546741</v>
+        <v>0.96791626</v>
       </c>
       <c r="M17">
-        <v>0.999976415747359</v>
+        <v>1.04831338</v>
       </c>
       <c r="N17">
-        <v>0.999976415747359</v>
+        <v>1.04831338</v>
       </c>
       <c r="O17">
-        <v>0.9999721284527232</v>
+        <v>1.055785586666667</v>
       </c>
       <c r="P17">
-        <v>0.9999888614821008</v>
+        <v>1.021426703333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999888614821008</v>
+        <v>1.021426703333333</v>
       </c>
       <c r="R17">
-        <v>0.9999950843494716</v>
+        <v>1.007983365</v>
       </c>
       <c r="S17">
-        <v>0.9999950843494716</v>
+        <v>1.007983365</v>
       </c>
       <c r="T17">
-        <v>0.9999989960106918</v>
+        <v>1.002890526666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000062189058848</v>
+        <v>0.9919073386301372</v>
       </c>
       <c r="D18">
-        <v>0.9997637967278139</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="E18">
-        <v>1.000057306075096</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="F18">
-        <v>1.000062189058848</v>
+        <v>1.003662896986302</v>
       </c>
       <c r="G18">
-        <v>1.000151888687529</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="H18">
-        <v>0.9998712188031675</v>
+        <v>1.003777639178082</v>
       </c>
       <c r="I18">
-        <v>1.000058728993573</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="J18">
-        <v>0.9997637967278139</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="K18">
-        <v>1.000062189058848</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="L18">
-        <v>1.000057306075096</v>
+        <v>1.003777639178082</v>
       </c>
       <c r="M18">
-        <v>0.9999105514014551</v>
+        <v>0.9946146501369861</v>
       </c>
       <c r="N18">
-        <v>0.9999105514014551</v>
+        <v>0.9946146501369861</v>
       </c>
       <c r="O18">
-        <v>0.9998974405353592</v>
+        <v>0.9937122129680365</v>
       </c>
       <c r="P18">
-        <v>0.9999610972872528</v>
+        <v>0.9975377981735157</v>
       </c>
       <c r="Q18">
-        <v>0.9999610972872528</v>
+        <v>0.997537798173516</v>
       </c>
       <c r="R18">
-        <v>0.9999863702301516</v>
+        <v>0.9989993721917807</v>
       </c>
       <c r="S18">
-        <v>0.9999863702301516</v>
+        <v>0.9989993721917807</v>
       </c>
       <c r="T18">
-        <v>0.9999941880576714</v>
+        <v>0.9997220489954337</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000152464205067</v>
+        <v>1.035184897894737</v>
       </c>
       <c r="D19">
-        <v>0.9994424800133056</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="E19">
-        <v>1.000132109605388</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="F19">
-        <v>1.000152464205067</v>
+        <v>0.9840184273684212</v>
       </c>
       <c r="G19">
-        <v>1.000348418772762</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="H19">
-        <v>0.9996980746796681</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="I19">
-        <v>1.000138044698857</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="J19">
-        <v>0.9994424800133056</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="K19">
-        <v>1.000152464205067</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="L19">
-        <v>1.000132109605388</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="M19">
-        <v>0.9997872948093469</v>
+        <v>1.023891542631579</v>
       </c>
       <c r="N19">
-        <v>0.9997872948093469</v>
+        <v>1.023891542631579</v>
       </c>
       <c r="O19">
-        <v>0.9997575547661207</v>
+        <v>1.027655994385965</v>
       </c>
       <c r="P19">
-        <v>0.9999090179412535</v>
+        <v>1.010669421754386</v>
       </c>
       <c r="Q19">
-        <v>0.9999090179412535</v>
+        <v>1.010669421754386</v>
       </c>
       <c r="R19">
-        <v>0.9999698795072068</v>
+        <v>1.004058361315789</v>
       </c>
       <c r="S19">
-        <v>0.9999698795072068</v>
+        <v>1.004058361315789</v>
       </c>
       <c r="T19">
-        <v>0.9999852653291746</v>
+        <v>1.001385262280702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9929029810526314</v>
+      </c>
+      <c r="D20">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="E20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="F20">
+        <v>1.003211843684211</v>
+      </c>
+      <c r="G20">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="H20">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="I20">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="J20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="K20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L20">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="M20">
+        <v>0.9952806555263156</v>
+      </c>
+      <c r="N20">
+        <v>0.9952806555263156</v>
+      </c>
+      <c r="O20">
+        <v>0.9944880973684209</v>
+      </c>
+      <c r="P20">
+        <v>0.9978404663157893</v>
+      </c>
+      <c r="Q20">
+        <v>0.9978404663157893</v>
+      </c>
+      <c r="R20">
+        <v>0.9991203717105261</v>
+      </c>
+      <c r="S20">
+        <v>0.9991203717105261</v>
+      </c>
+      <c r="T20">
+        <v>0.9997575213157894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.068374821632422</v>
+      </c>
+      <c r="D21">
+        <v>0.9173777296412537</v>
+      </c>
+      <c r="E21">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="F21">
+        <v>0.9689087623183814</v>
+      </c>
+      <c r="G21">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="H21">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="I21">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="J21">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="K21">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="L21">
+        <v>0.968995417645736</v>
+      </c>
+      <c r="M21">
+        <v>1.046719181207674</v>
+      </c>
+      <c r="N21">
+        <v>1.046719181207674</v>
+      </c>
+      <c r="O21">
+        <v>1.053937728015924</v>
+      </c>
+      <c r="P21">
+        <v>1.020712182991924</v>
+      </c>
+      <c r="Q21">
+        <v>1.020712182991924</v>
+      </c>
+      <c r="R21">
+        <v>1.007708683884049</v>
+      </c>
+      <c r="S21">
+        <v>1.007708683884049</v>
+      </c>
+      <c r="T21">
+        <v>1.002799643761305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.01821901744236</v>
+      </c>
+      <c r="D22">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="E22">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="F22">
+        <v>0.9917237199623146</v>
+      </c>
+      <c r="G22">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="H22">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="I22">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="J22">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="K22">
+        <v>0.9918147868316272</v>
+      </c>
+      <c r="L22">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="M22">
+        <v>1.012378821325417</v>
+      </c>
+      <c r="N22">
+        <v>1.012378821325417</v>
+      </c>
+      <c r="O22">
+        <v>1.014325553364398</v>
+      </c>
+      <c r="P22">
+        <v>1.00552414316082</v>
+      </c>
+      <c r="Q22">
+        <v>1.00552414316082</v>
+      </c>
+      <c r="R22">
+        <v>1.002096804078522</v>
+      </c>
+      <c r="S22">
+        <v>1.002096804078522</v>
+      </c>
+      <c r="T22">
+        <v>1.000720111452504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.999282435739436</v>
+      </c>
+      <c r="D23">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="E23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="F23">
+        <v>1.000324559131633</v>
+      </c>
+      <c r="G23">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="H23">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="I23">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="J23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="K23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="L23">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="M23">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="N23">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="O23">
+        <v>0.9994436884479255</v>
+      </c>
+      <c r="P23">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="R23">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="S23">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="T23">
+        <v>0.9999760287858068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9998045610426183</v>
+      </c>
+      <c r="D24">
+        <v>1.000220137397194</v>
+      </c>
+      <c r="E24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="F24">
+        <v>1.000089609287539</v>
+      </c>
+      <c r="G24">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="H24">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="I24">
+        <v>0.9996364740418495</v>
+      </c>
+      <c r="J24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="K24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="L24">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="M24">
+        <v>0.9998602066226482</v>
+      </c>
+      <c r="N24">
+        <v>0.9998602066226482</v>
+      </c>
+      <c r="O24">
+        <v>0.9998416580959715</v>
+      </c>
+      <c r="P24">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="R24">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="S24">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="T24">
+        <v>0.9999896830273373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9465706614042574</v>
+      </c>
+      <c r="D25">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="E25">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="F25">
+        <v>1.024255608649295</v>
+      </c>
+      <c r="G25">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="H25">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="I25">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="J25">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="K25">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="L25">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="M25">
+        <v>0.9638295389958074</v>
+      </c>
+      <c r="N25">
+        <v>0.9638295389958074</v>
+      </c>
+      <c r="O25">
+        <v>0.958076579798624</v>
+      </c>
+      <c r="P25">
+        <v>0.9837899859601746</v>
+      </c>
+      <c r="Q25">
+        <v>0.9837899859601745</v>
+      </c>
+      <c r="R25">
+        <v>0.9937702094423582</v>
+      </c>
+      <c r="S25">
+        <v>0.9937702094423582</v>
+      </c>
+      <c r="T25">
+        <v>0.9979370220116067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9856398703219604</v>
+      </c>
+      <c r="D26">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="E26">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="F26">
+        <v>1.00654008781614</v>
+      </c>
+      <c r="G26">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="H26">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="I26">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="J26">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="K26">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="L26">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="M26">
+        <v>0.9901006180477125</v>
+      </c>
+      <c r="N26">
+        <v>0.9901006180477125</v>
+      </c>
+      <c r="O26">
+        <v>0.9886137021391285</v>
+      </c>
+      <c r="P26">
+        <v>0.9956565400519727</v>
+      </c>
+      <c r="Q26">
+        <v>0.9956565400519728</v>
+      </c>
+      <c r="R26">
+        <v>0.9984345010541029</v>
+      </c>
+      <c r="S26">
+        <v>0.9984345010541029</v>
+      </c>
+      <c r="T26">
+        <v>0.9993796528446234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9984679695955437</v>
+      </c>
+      <c r="D27">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="E27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="F27">
+        <v>1.000695244007062</v>
+      </c>
+      <c r="G27">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="H27">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="I27">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="J27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="K27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="L27">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="M27">
+        <v>0.9989649676056656</v>
+      </c>
+      <c r="N27">
+        <v>0.9989649676056656</v>
+      </c>
+      <c r="O27">
+        <v>0.9987993016022916</v>
+      </c>
+      <c r="P27">
+        <v>0.999535039571351</v>
+      </c>
+      <c r="Q27">
+        <v>0.999535039571351</v>
+      </c>
+      <c r="R27">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="S27">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="T27">
+        <v>0.9999416302792538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001549811632463</v>
+      </c>
+      <c r="D28">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="E28">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="F28">
+        <v>0.9992902126732478</v>
+      </c>
+      <c r="G28">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="H28">
+        <v>0.9993294088065403</v>
+      </c>
+      <c r="I28">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="J28">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="K28">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="L28">
+        <v>0.9993294088065403</v>
+      </c>
+      <c r="M28">
+        <v>1.001101911017764</v>
+      </c>
+      <c r="N28">
+        <v>1.001101911017764</v>
+      </c>
+      <c r="O28">
+        <v>1.001251211222664</v>
+      </c>
+      <c r="P28">
+        <v>1.000466261064557</v>
+      </c>
+      <c r="Q28">
+        <v>1.000466261064557</v>
+      </c>
+      <c r="R28">
+        <v>1.000148436087953</v>
+      </c>
+      <c r="S28">
+        <v>1.000148436087953</v>
+      </c>
+      <c r="T28">
+        <v>1.000079363049946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.006731078535596</v>
+      </c>
+      <c r="D29">
+        <v>0.9920514845653239</v>
+      </c>
+      <c r="E29">
+        <v>0.9967579196442231</v>
+      </c>
+      <c r="F29">
+        <v>0.9969307443228053</v>
+      </c>
+      <c r="G29">
+        <v>1.0123409737376</v>
+      </c>
+      <c r="H29">
+        <v>0.9970018749264977</v>
+      </c>
+      <c r="I29">
+        <v>1.0123409737376</v>
+      </c>
+      <c r="J29">
+        <v>0.9967579196442231</v>
+      </c>
+      <c r="K29">
+        <v>0.9967579196442231</v>
+      </c>
+      <c r="L29">
+        <v>0.9970018749264977</v>
+      </c>
+      <c r="M29">
+        <v>1.004671424332049</v>
+      </c>
+      <c r="N29">
+        <v>1.004671424332049</v>
+      </c>
+      <c r="O29">
+        <v>1.005357975733231</v>
+      </c>
+      <c r="P29">
+        <v>1.002033589436107</v>
+      </c>
+      <c r="Q29">
+        <v>1.002033589436107</v>
+      </c>
+      <c r="R29">
+        <v>1.000714671988136</v>
+      </c>
+      <c r="S29">
+        <v>1.000714671988136</v>
+      </c>
+      <c r="T29">
+        <v>1.000302345955341</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9976248587877149</v>
+        <v>0.9957970699498504</v>
       </c>
       <c r="D4">
-        <v>1.00277958868162</v>
+        <v>1.00498667424703</v>
       </c>
       <c r="E4">
-        <v>1.001165814238852</v>
+        <v>1.002003925322815</v>
       </c>
       <c r="F4">
-        <v>1.001084172227497</v>
+        <v>1.001915371331339</v>
       </c>
       <c r="G4">
-        <v>0.9956330716692584</v>
+        <v>0.9923057148114121</v>
       </c>
       <c r="H4">
-        <v>1.001050576334443</v>
+        <v>1.001878931611703</v>
       </c>
       <c r="I4">
-        <v>0.9956330716692584</v>
+        <v>0.9923057148114121</v>
       </c>
       <c r="J4">
-        <v>1.001165814238852</v>
+        <v>1.002003925322815</v>
       </c>
       <c r="K4">
-        <v>1.001165814238852</v>
+        <v>1.002003925322815</v>
       </c>
       <c r="L4">
-        <v>1.001050576334443</v>
+        <v>1.001878931611703</v>
       </c>
       <c r="M4">
-        <v>0.9983418240018509</v>
+        <v>0.9970923232115576</v>
       </c>
       <c r="N4">
-        <v>0.9983418240018509</v>
+        <v>0.9970923232115576</v>
       </c>
       <c r="O4">
-        <v>0.9981028355971389</v>
+        <v>0.9966605721243219</v>
       </c>
       <c r="P4">
-        <v>0.9992831540808513</v>
+        <v>0.9987295239153101</v>
       </c>
       <c r="Q4">
-        <v>0.9992831540808513</v>
+        <v>0.9987295239153101</v>
       </c>
       <c r="R4">
-        <v>0.9997538191203514</v>
+        <v>0.9995481242671863</v>
       </c>
       <c r="S4">
-        <v>0.9997538191203514</v>
+        <v>0.9995481242671863</v>
       </c>
       <c r="T4">
-        <v>0.9998896803232311</v>
+        <v>0.9998146145456915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9955868407204626</v>
+        <v>0.9918049984074808</v>
       </c>
       <c r="D5">
-        <v>1.00523587462536</v>
+        <v>1.010338528141337</v>
       </c>
       <c r="E5">
-        <v>1.002104362946686</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="F5">
-        <v>1.002011187802594</v>
+        <v>1.003706394566522</v>
       </c>
       <c r="G5">
-        <v>0.9919207349279539</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="H5">
-        <v>1.001972847644092</v>
+        <v>1.00384338652565</v>
       </c>
       <c r="I5">
-        <v>0.9919207349279539</v>
+        <v>0.9852977042605678</v>
       </c>
       <c r="J5">
-        <v>1.002104362946686</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="K5">
-        <v>1.002104362946686</v>
+        <v>1.00337351694334</v>
       </c>
       <c r="L5">
-        <v>1.001972847644092</v>
+        <v>1.00384338652565</v>
       </c>
       <c r="M5">
-        <v>0.996946791286023</v>
+        <v>0.9945705453931089</v>
       </c>
       <c r="N5">
-        <v>0.996946791286023</v>
+        <v>0.9945705453931089</v>
       </c>
       <c r="O5">
-        <v>0.9964934744308361</v>
+        <v>0.9936486963978995</v>
       </c>
       <c r="P5">
-        <v>0.9986659818395772</v>
+        <v>0.9975048692431857</v>
       </c>
       <c r="Q5">
-        <v>0.9986659818395772</v>
+        <v>0.9975048692431857</v>
       </c>
       <c r="R5">
-        <v>0.9995255771163545</v>
+        <v>0.9989720311682242</v>
       </c>
       <c r="S5">
-        <v>0.9995255771163545</v>
+        <v>0.9989720311682242</v>
       </c>
       <c r="T5">
-        <v>0.9998053081111915</v>
+        <v>0.9997274214741495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9853160059928749</v>
+        <v>0.9976248587877149</v>
       </c>
       <c r="D6">
-        <v>1.01721061867366</v>
+        <v>1.00277958868162</v>
       </c>
       <c r="E6">
-        <v>1.007184772046092</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="F6">
-        <v>1.006701540055496</v>
+        <v>1.001084172227497</v>
       </c>
       <c r="G6">
-        <v>0.9730148195252727</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="H6">
-        <v>1.006502703327612</v>
+        <v>1.001050576334443</v>
       </c>
       <c r="I6">
-        <v>0.9730148195252727</v>
+        <v>0.9956330716692584</v>
       </c>
       <c r="J6">
-        <v>1.007184772046092</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="K6">
-        <v>1.007184772046092</v>
+        <v>1.001165814238852</v>
       </c>
       <c r="L6">
-        <v>1.006502703327612</v>
+        <v>1.001050576334443</v>
       </c>
       <c r="M6">
-        <v>0.9897587614264425</v>
+        <v>0.9983418240018509</v>
       </c>
       <c r="N6">
-        <v>0.9897587614264425</v>
+        <v>0.9983418240018509</v>
       </c>
       <c r="O6">
-        <v>0.9882778429485866</v>
+        <v>0.9981028355971389</v>
       </c>
       <c r="P6">
-        <v>0.9955674316329923</v>
+        <v>0.9992831540808513</v>
       </c>
       <c r="Q6">
-        <v>0.9955674316329922</v>
+        <v>0.9992831540808513</v>
       </c>
       <c r="R6">
-        <v>0.9984717667362671</v>
+        <v>0.9997538191203514</v>
       </c>
       <c r="S6">
-        <v>0.9984717667362671</v>
+        <v>0.9997538191203514</v>
       </c>
       <c r="T6">
-        <v>0.9993217432701678</v>
+        <v>0.9998896803232311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995144862129347</v>
+        <v>0.9955868407204626</v>
       </c>
       <c r="D7">
-        <v>1.000604457325854</v>
+        <v>1.00523587462536</v>
       </c>
       <c r="E7">
-        <v>1.000206848399205</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="F7">
-        <v>1.000219955598957</v>
+        <v>1.002011187802594</v>
       </c>
       <c r="G7">
-        <v>0.999125033092698</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="H7">
-        <v>1.000225350068565</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="I7">
-        <v>0.999125033092698</v>
+        <v>0.9919207349279539</v>
       </c>
       <c r="J7">
-        <v>1.000206848399205</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="K7">
-        <v>1.000206848399205</v>
+        <v>1.002104362946686</v>
       </c>
       <c r="L7">
-        <v>1.000225350068565</v>
+        <v>1.001972847644092</v>
       </c>
       <c r="M7">
-        <v>0.9996751915806317</v>
+        <v>0.996946791286023</v>
       </c>
       <c r="N7">
-        <v>0.9996751915806317</v>
+        <v>0.996946791286023</v>
       </c>
       <c r="O7">
-        <v>0.9996216231247327</v>
+        <v>0.9964934744308361</v>
       </c>
       <c r="P7">
-        <v>0.9998524105201562</v>
+        <v>0.9986659818395772</v>
       </c>
       <c r="Q7">
-        <v>0.9998524105201562</v>
+        <v>0.9986659818395772</v>
       </c>
       <c r="R7">
-        <v>0.9999410199899184</v>
+        <v>0.9995255771163545</v>
       </c>
       <c r="S7">
-        <v>0.9999410199899184</v>
+        <v>0.9995255771163545</v>
       </c>
       <c r="T7">
-        <v>0.9999826884497024</v>
+        <v>0.9998053081111915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999635538634517</v>
+        <v>0.9853160059928749</v>
       </c>
       <c r="D8">
-        <v>1.000047420499376</v>
+        <v>1.01721061867366</v>
       </c>
       <c r="E8">
-        <v>1.000013752951584</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="F8">
-        <v>1.00001641725502</v>
+        <v>1.006701540055496</v>
       </c>
       <c r="G8">
-        <v>0.9999353169479763</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="H8">
-        <v>1.000017514546741</v>
+        <v>1.006502703327612</v>
       </c>
       <c r="I8">
-        <v>0.9999353169479763</v>
+        <v>0.9730148195252727</v>
       </c>
       <c r="J8">
-        <v>1.000013752951584</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="K8">
-        <v>1.000013752951584</v>
+        <v>1.007184772046092</v>
       </c>
       <c r="L8">
-        <v>1.000017514546741</v>
+        <v>1.006502703327612</v>
       </c>
       <c r="M8">
-        <v>0.9999764157473588</v>
+        <v>0.9897587614264425</v>
       </c>
       <c r="N8">
-        <v>0.9999764157473588</v>
+        <v>0.9897587614264425</v>
       </c>
       <c r="O8">
-        <v>0.9999721284527231</v>
+        <v>0.9882778429485866</v>
       </c>
       <c r="P8">
-        <v>0.9999888614821005</v>
+        <v>0.9955674316329923</v>
       </c>
       <c r="Q8">
-        <v>0.9999888614821005</v>
+        <v>0.9955674316329922</v>
       </c>
       <c r="R8">
-        <v>0.9999950843494715</v>
+        <v>0.9984717667362671</v>
       </c>
       <c r="S8">
-        <v>0.9999950843494715</v>
+        <v>0.9984717667362671</v>
       </c>
       <c r="T8">
-        <v>0.9999989960106914</v>
+        <v>0.9993217432701678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9991940996657495</v>
+        <v>0.9995144862129347</v>
       </c>
       <c r="D9">
-        <v>1.001002788579844</v>
+        <v>1.000604457325854</v>
       </c>
       <c r="E9">
-        <v>1.000343820203205</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="F9">
-        <v>1.000365126960484</v>
+        <v>1.000219955598957</v>
       </c>
       <c r="G9">
-        <v>0.9985473785823196</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="H9">
-        <v>1.000373896833696</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="I9">
-        <v>0.9985473785823196</v>
+        <v>0.999125033092698</v>
       </c>
       <c r="J9">
-        <v>1.000343820203205</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="K9">
-        <v>1.000343820203205</v>
+        <v>1.000206848399205</v>
       </c>
       <c r="L9">
-        <v>1.000373896833696</v>
+        <v>1.000225350068565</v>
       </c>
       <c r="M9">
-        <v>0.9994606377080076</v>
+        <v>0.9996751915806317</v>
       </c>
       <c r="N9">
-        <v>0.9994606377080076</v>
+        <v>0.9996751915806317</v>
       </c>
       <c r="O9">
-        <v>0.9993717916939215</v>
+        <v>0.9996216231247327</v>
       </c>
       <c r="P9">
-        <v>0.9997550318730735</v>
+        <v>0.9998524105201562</v>
       </c>
       <c r="Q9">
-        <v>0.9997550318730735</v>
+        <v>0.9998524105201562</v>
       </c>
       <c r="R9">
-        <v>0.9999022289556064</v>
+        <v>0.9999410199899184</v>
       </c>
       <c r="S9">
-        <v>0.9999022289556064</v>
+        <v>0.9999410199899184</v>
       </c>
       <c r="T9">
-        <v>0.9999711851375497</v>
+        <v>0.9999826884497024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9850964089928627</v>
+        <v>0.9999635538634517</v>
       </c>
       <c r="D10">
-        <v>1.017458463967878</v>
+        <v>1.000047420499376</v>
       </c>
       <c r="E10">
-        <v>1.007300491859119</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="F10">
-        <v>1.006802198325967</v>
+        <v>1.00001641725502</v>
       </c>
       <c r="G10">
-        <v>0.9726066070992733</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="H10">
-        <v>1.006597163777313</v>
+        <v>1.000017514546741</v>
       </c>
       <c r="I10">
-        <v>0.9726066070992733</v>
+        <v>0.9999353169479763</v>
       </c>
       <c r="J10">
-        <v>1.007300491859119</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="K10">
-        <v>1.007300491859119</v>
+        <v>1.000013752951584</v>
       </c>
       <c r="L10">
-        <v>1.006597163777313</v>
+        <v>1.000017514546741</v>
       </c>
       <c r="M10">
-        <v>0.9896018854382933</v>
+        <v>0.9999764157473588</v>
       </c>
       <c r="N10">
-        <v>0.9896018854382933</v>
+        <v>0.9999764157473588</v>
       </c>
       <c r="O10">
-        <v>0.9881000599564831</v>
+        <v>0.9999721284527231</v>
       </c>
       <c r="P10">
-        <v>0.9955014209119017</v>
+        <v>0.9999888614821005</v>
       </c>
       <c r="Q10">
-        <v>0.9955014209119017</v>
+        <v>0.9999888614821005</v>
       </c>
       <c r="R10">
-        <v>0.998451188648706</v>
+        <v>0.9999950843494715</v>
       </c>
       <c r="S10">
-        <v>0.998451188648706</v>
+        <v>0.9999950843494715</v>
       </c>
       <c r="T10">
-        <v>0.9993102223370688</v>
+        <v>0.9999989960106914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9840028649830238</v>
+        <v>0.9991940996657495</v>
       </c>
       <c r="D11">
-        <v>1.019296450969378</v>
+        <v>1.001002788579844</v>
       </c>
       <c r="E11">
-        <v>1.007352984585793</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="F11">
-        <v>1.007275741159616</v>
+        <v>1.000365126960484</v>
       </c>
       <c r="G11">
-        <v>0.9708684220146692</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="H11">
-        <v>1.007243956402805</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="I11">
-        <v>0.9708684220146692</v>
+        <v>0.9985473785823196</v>
       </c>
       <c r="J11">
-        <v>1.007352984585793</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="K11">
-        <v>1.007352984585793</v>
+        <v>1.000343820203205</v>
       </c>
       <c r="L11">
-        <v>1.007243956402805</v>
+        <v>1.000373896833696</v>
       </c>
       <c r="M11">
-        <v>0.9890561892087371</v>
+        <v>0.9994606377080076</v>
       </c>
       <c r="N11">
-        <v>0.9890561892087371</v>
+        <v>0.9994606377080076</v>
       </c>
       <c r="O11">
-        <v>0.9873717478001659</v>
+        <v>0.9993717916939215</v>
       </c>
       <c r="P11">
-        <v>0.995155121001089</v>
+        <v>0.9997550318730735</v>
       </c>
       <c r="Q11">
-        <v>0.995155121001089</v>
+        <v>0.9997550318730735</v>
       </c>
       <c r="R11">
-        <v>0.998204586897265</v>
+        <v>0.9999022289556064</v>
       </c>
       <c r="S11">
-        <v>0.998204586897265</v>
+        <v>0.9999022289556064</v>
       </c>
       <c r="T11">
-        <v>0.999340070019214</v>
+        <v>0.9999711851375497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9949927510947376</v>
+        <v>0.9850964089928627</v>
       </c>
       <c r="D12">
-        <v>1.005889715389473</v>
+        <v>1.017458463967878</v>
       </c>
       <c r="E12">
-        <v>1.002431889789474</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="F12">
-        <v>1.002284271242104</v>
+        <v>1.006802198325967</v>
       </c>
       <c r="G12">
-        <v>0.9908082372421054</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="H12">
-        <v>1.00222352711579</v>
+        <v>1.006597163777313</v>
       </c>
       <c r="I12">
-        <v>0.9908082372421054</v>
+        <v>0.9726066070992733</v>
       </c>
       <c r="J12">
-        <v>1.002431889789474</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="K12">
-        <v>1.002431889789474</v>
+        <v>1.007300491859119</v>
       </c>
       <c r="L12">
-        <v>1.00222352711579</v>
+        <v>1.006597163777313</v>
       </c>
       <c r="M12">
-        <v>0.9965158821789479</v>
+        <v>0.9896018854382933</v>
       </c>
       <c r="N12">
-        <v>0.9965158821789479</v>
+        <v>0.9896018854382933</v>
       </c>
       <c r="O12">
-        <v>0.9960081718175445</v>
+        <v>0.9881000599564831</v>
       </c>
       <c r="P12">
-        <v>0.99848788471579</v>
+        <v>0.9955014209119017</v>
       </c>
       <c r="Q12">
-        <v>0.99848788471579</v>
+        <v>0.9955014209119017</v>
       </c>
       <c r="R12">
-        <v>0.9994738859842112</v>
+        <v>0.998451188648706</v>
       </c>
       <c r="S12">
-        <v>0.9994738859842112</v>
+        <v>0.998451188648706</v>
       </c>
       <c r="T12">
-        <v>0.9997717319789475</v>
+        <v>0.9993102223370688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002928049607558</v>
+        <v>0.9840028649830238</v>
       </c>
       <c r="D13">
-        <v>0.9964674025306119</v>
+        <v>1.019296450969378</v>
       </c>
       <c r="E13">
-        <v>0.9986547095376633</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="F13">
-        <v>0.9986683068913772</v>
+        <v>1.007275741159616</v>
       </c>
       <c r="G13">
-        <v>1.005331803881168</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="H13">
-        <v>0.9986739051297188</v>
+        <v>1.007243956402805</v>
       </c>
       <c r="I13">
-        <v>1.005331803881168</v>
+        <v>0.9708684220146692</v>
       </c>
       <c r="J13">
-        <v>0.9986547095376633</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="K13">
-        <v>0.9986547095376633</v>
+        <v>1.007352984585793</v>
       </c>
       <c r="L13">
-        <v>0.9986739051297188</v>
+        <v>1.007243956402805</v>
       </c>
       <c r="M13">
-        <v>1.002002854505443</v>
+        <v>0.9890561892087371</v>
       </c>
       <c r="N13">
-        <v>1.002002854505443</v>
+        <v>0.9890561892087371</v>
       </c>
       <c r="O13">
-        <v>1.002311252872815</v>
+        <v>0.9873717478001659</v>
       </c>
       <c r="P13">
-        <v>1.00088680618285</v>
+        <v>0.995155121001089</v>
       </c>
       <c r="Q13">
-        <v>1.00088680618285</v>
+        <v>0.995155121001089</v>
       </c>
       <c r="R13">
-        <v>1.000328782021553</v>
+        <v>0.998204586897265</v>
       </c>
       <c r="S13">
-        <v>1.000328782021553</v>
+        <v>0.998204586897265</v>
       </c>
       <c r="T13">
-        <v>1.000120696263016</v>
+        <v>0.999340070019214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9742505199999987</v>
+        <v>0.9949927510947376</v>
       </c>
       <c r="D14">
-        <v>1.0301398</v>
+        <v>1.005889715389473</v>
       </c>
       <c r="E14">
-        <v>1.012634</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="F14">
-        <v>1.011753499999999</v>
+        <v>1.002284271242104</v>
       </c>
       <c r="G14">
-        <v>0.9526597999999998</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="H14">
-        <v>1.0113912</v>
+        <v>1.00222352711579</v>
       </c>
       <c r="I14">
-        <v>0.9526597999999998</v>
+        <v>0.9908082372421054</v>
       </c>
       <c r="J14">
-        <v>1.012634</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="K14">
-        <v>1.012634</v>
+        <v>1.002431889789474</v>
       </c>
       <c r="L14">
-        <v>1.0113912</v>
+        <v>1.00222352711579</v>
       </c>
       <c r="M14">
-        <v>0.9820254999999998</v>
+        <v>0.9965158821789479</v>
       </c>
       <c r="N14">
-        <v>0.9820254999999998</v>
+        <v>0.9965158821789479</v>
       </c>
       <c r="O14">
-        <v>0.9794338399999994</v>
+        <v>0.9960081718175445</v>
       </c>
       <c r="P14">
-        <v>0.9922283333333329</v>
+        <v>0.99848788471579</v>
       </c>
       <c r="Q14">
-        <v>0.9922283333333329</v>
+        <v>0.99848788471579</v>
       </c>
       <c r="R14">
-        <v>0.9973297499999996</v>
+        <v>0.9994738859842112</v>
       </c>
       <c r="S14">
-        <v>0.9973297499999996</v>
+        <v>0.9994738859842112</v>
       </c>
       <c r="T14">
-        <v>0.9988048033333327</v>
+        <v>0.9997717319789475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1028898</v>
+        <v>1.002928049607558</v>
       </c>
       <c r="D15">
-        <v>0.8759446600000002</v>
+        <v>0.9964674025306119</v>
       </c>
       <c r="E15">
-        <v>0.9526597999999999</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="F15">
-        <v>0.95320164</v>
+        <v>0.9986683068913772</v>
       </c>
       <c r="G15">
-        <v>1.1873941</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="H15">
-        <v>0.9534246199999999</v>
+        <v>0.9986739051297188</v>
       </c>
       <c r="I15">
-        <v>1.1873941</v>
+        <v>1.005331803881168</v>
       </c>
       <c r="J15">
-        <v>0.9526597999999999</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="K15">
-        <v>0.9526597999999999</v>
+        <v>0.9986547095376633</v>
       </c>
       <c r="L15">
-        <v>0.9534246199999999</v>
+        <v>0.9986739051297188</v>
       </c>
       <c r="M15">
-        <v>1.07040936</v>
+        <v>1.002002854505443</v>
       </c>
       <c r="N15">
-        <v>1.07040936</v>
+        <v>1.002002854505443</v>
       </c>
       <c r="O15">
-        <v>1.081236173333333</v>
+        <v>1.002311252872815</v>
       </c>
       <c r="P15">
-        <v>1.031159506666667</v>
+        <v>1.00088680618285</v>
       </c>
       <c r="Q15">
-        <v>1.031159506666667</v>
+        <v>1.00088680618285</v>
       </c>
       <c r="R15">
-        <v>1.01153458</v>
+        <v>1.000328782021553</v>
       </c>
       <c r="S15">
-        <v>1.01153458</v>
+        <v>1.000328782021553</v>
       </c>
       <c r="T15">
-        <v>1.004252436666667</v>
+        <v>1.000120696263016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9742505199999999</v>
+        <v>0.9742505199999987</v>
       </c>
       <c r="D16">
         <v>1.0301398</v>
@@ -1459,16 +1465,16 @@
         <v>1.012634</v>
       </c>
       <c r="F16">
-        <v>1.0117535</v>
+        <v>1.011753499999999</v>
       </c>
       <c r="G16">
-        <v>0.9526597999999999</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="H16">
         <v>1.0113912</v>
       </c>
       <c r="I16">
-        <v>0.9526597999999999</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="J16">
         <v>1.012634</v>
@@ -1480,28 +1486,28 @@
         <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>0.9820255</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="N16">
-        <v>0.9820255</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="O16">
-        <v>0.97943384</v>
+        <v>0.9794338399999994</v>
       </c>
       <c r="P16">
-        <v>0.9922283333333333</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="Q16">
-        <v>0.9922283333333333</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="R16">
-        <v>0.99732975</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="S16">
-        <v>0.99732975</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="T16">
-        <v>0.9988048033333333</v>
+        <v>0.9988048033333327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.07073</v>
+        <v>1.1028898</v>
       </c>
       <c r="D17">
-        <v>0.91449344</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="E17">
-        <v>0.96765335</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="F17">
-        <v>0.96783961</v>
+        <v>0.95320164</v>
       </c>
       <c r="G17">
-        <v>1.1287105</v>
+        <v>1.1873941</v>
       </c>
       <c r="H17">
-        <v>0.96791626</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="I17">
-        <v>1.1287105</v>
+        <v>1.1873941</v>
       </c>
       <c r="J17">
-        <v>0.96765335</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K17">
-        <v>0.96765335</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="L17">
-        <v>0.96791626</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="M17">
-        <v>1.04831338</v>
+        <v>1.07040936</v>
       </c>
       <c r="N17">
-        <v>1.04831338</v>
+        <v>1.07040936</v>
       </c>
       <c r="O17">
-        <v>1.055785586666667</v>
+        <v>1.081236173333333</v>
       </c>
       <c r="P17">
-        <v>1.021426703333333</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="Q17">
-        <v>1.021426703333333</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="R17">
-        <v>1.007983365</v>
+        <v>1.01153458</v>
       </c>
       <c r="S17">
-        <v>1.007983365</v>
+        <v>1.01153458</v>
       </c>
       <c r="T17">
-        <v>1.002890526666667</v>
+        <v>1.004252436666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9919073386301372</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="D18">
-        <v>1.010148663835616</v>
+        <v>1.0301398</v>
       </c>
       <c r="E18">
-        <v>1.003384094246575</v>
+        <v>1.012634</v>
       </c>
       <c r="F18">
-        <v>1.003662896986302</v>
+        <v>1.0117535</v>
       </c>
       <c r="G18">
-        <v>0.98545166109589</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H18">
-        <v>1.003777639178082</v>
+        <v>1.0113912</v>
       </c>
       <c r="I18">
-        <v>0.98545166109589</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="J18">
-        <v>1.003384094246575</v>
+        <v>1.012634</v>
       </c>
       <c r="K18">
-        <v>1.003384094246575</v>
+        <v>1.012634</v>
       </c>
       <c r="L18">
-        <v>1.003777639178082</v>
+        <v>1.0113912</v>
       </c>
       <c r="M18">
-        <v>0.9946146501369861</v>
+        <v>0.9820255</v>
       </c>
       <c r="N18">
-        <v>0.9946146501369861</v>
+        <v>0.9820255</v>
       </c>
       <c r="O18">
-        <v>0.9937122129680365</v>
+        <v>0.97943384</v>
       </c>
       <c r="P18">
-        <v>0.9975377981735157</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q18">
-        <v>0.997537798173516</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R18">
-        <v>0.9989993721917807</v>
+        <v>0.99732975</v>
       </c>
       <c r="S18">
-        <v>0.9989993721917807</v>
+        <v>0.99732975</v>
       </c>
       <c r="T18">
-        <v>0.9997220489954337</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.035184897894737</v>
+        <v>1.07073</v>
       </c>
       <c r="D19">
-        <v>0.9570999831578948</v>
+        <v>0.91449344</v>
       </c>
       <c r="E19">
-        <v>0.9842251800000001</v>
+        <v>0.96765335</v>
       </c>
       <c r="F19">
-        <v>0.9840184273684212</v>
+        <v>0.96783961</v>
       </c>
       <c r="G19">
-        <v>1.063849743157895</v>
+        <v>1.1287105</v>
       </c>
       <c r="H19">
-        <v>0.9839333421052632</v>
+        <v>0.96791626</v>
       </c>
       <c r="I19">
-        <v>1.063849743157895</v>
+        <v>1.1287105</v>
       </c>
       <c r="J19">
-        <v>0.9842251800000001</v>
+        <v>0.96765335</v>
       </c>
       <c r="K19">
-        <v>0.9842251800000001</v>
+        <v>0.96765335</v>
       </c>
       <c r="L19">
-        <v>0.9839333421052632</v>
+        <v>0.96791626</v>
       </c>
       <c r="M19">
-        <v>1.023891542631579</v>
+        <v>1.04831338</v>
       </c>
       <c r="N19">
-        <v>1.023891542631579</v>
+        <v>1.04831338</v>
       </c>
       <c r="O19">
-        <v>1.027655994385965</v>
+        <v>1.055785586666667</v>
       </c>
       <c r="P19">
-        <v>1.010669421754386</v>
+        <v>1.021426703333333</v>
       </c>
       <c r="Q19">
-        <v>1.010669421754386</v>
+        <v>1.021426703333333</v>
       </c>
       <c r="R19">
-        <v>1.004058361315789</v>
+        <v>1.007983365</v>
       </c>
       <c r="S19">
-        <v>1.004058361315789</v>
+        <v>1.007983365</v>
       </c>
       <c r="T19">
-        <v>1.001385262280702</v>
+        <v>1.002890526666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9929029810526314</v>
+        <v>0.9919073386301372</v>
       </c>
       <c r="D20">
-        <v>1.008908904210527</v>
+        <v>1.010148663835616</v>
       </c>
       <c r="E20">
-        <v>1.002960087894737</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="F20">
-        <v>1.003211843684211</v>
+        <v>1.003662896986302</v>
       </c>
       <c r="G20">
-        <v>0.987245854736842</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="H20">
-        <v>1.003315456315789</v>
+        <v>1.003777639178082</v>
       </c>
       <c r="I20">
-        <v>0.987245854736842</v>
+        <v>0.98545166109589</v>
       </c>
       <c r="J20">
-        <v>1.002960087894737</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="K20">
-        <v>1.002960087894737</v>
+        <v>1.003384094246575</v>
       </c>
       <c r="L20">
-        <v>1.003315456315789</v>
+        <v>1.003777639178082</v>
       </c>
       <c r="M20">
-        <v>0.9952806555263156</v>
+        <v>0.9946146501369861</v>
       </c>
       <c r="N20">
-        <v>0.9952806555263156</v>
+        <v>0.9946146501369861</v>
       </c>
       <c r="O20">
-        <v>0.9944880973684209</v>
+        <v>0.9937122129680365</v>
       </c>
       <c r="P20">
-        <v>0.9978404663157893</v>
+        <v>0.9975377981735157</v>
       </c>
       <c r="Q20">
-        <v>0.9978404663157893</v>
+        <v>0.997537798173516</v>
       </c>
       <c r="R20">
-        <v>0.9991203717105261</v>
+        <v>0.9989993721917807</v>
       </c>
       <c r="S20">
-        <v>0.9991203717105261</v>
+        <v>0.9989993721917807</v>
       </c>
       <c r="T20">
-        <v>0.9997575213157894</v>
+        <v>0.9997220489954337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.068374821632422</v>
+        <v>1.035184897894737</v>
       </c>
       <c r="D21">
-        <v>0.9173777296412537</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="E21">
-        <v>0.9686981865604244</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="F21">
-        <v>0.9689087623183814</v>
+        <v>0.9840184273684212</v>
       </c>
       <c r="G21">
-        <v>1.124442944769613</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="H21">
-        <v>0.968995417645736</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="I21">
-        <v>1.124442944769613</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="J21">
-        <v>0.9686981865604244</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="K21">
-        <v>0.9686981865604244</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="L21">
-        <v>0.968995417645736</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="M21">
-        <v>1.046719181207674</v>
+        <v>1.023891542631579</v>
       </c>
       <c r="N21">
-        <v>1.046719181207674</v>
+        <v>1.023891542631579</v>
       </c>
       <c r="O21">
-        <v>1.053937728015924</v>
+        <v>1.027655994385965</v>
       </c>
       <c r="P21">
-        <v>1.020712182991924</v>
+        <v>1.010669421754386</v>
       </c>
       <c r="Q21">
-        <v>1.020712182991924</v>
+        <v>1.010669421754386</v>
       </c>
       <c r="R21">
-        <v>1.007708683884049</v>
+        <v>1.004058361315789</v>
       </c>
       <c r="S21">
-        <v>1.007708683884049</v>
+        <v>1.004058361315789</v>
       </c>
       <c r="T21">
-        <v>1.002799643761305</v>
+        <v>1.001385262280702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.01821901744236</v>
+        <v>0.9929029810526314</v>
       </c>
       <c r="D22">
-        <v>0.9778055018278902</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="E22">
-        <v>0.9918147868316272</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="F22">
-        <v>0.9917237199623146</v>
+        <v>1.003211843684211</v>
       </c>
       <c r="G22">
-        <v>1.033071397338449</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="H22">
-        <v>0.9916862453123849</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="I22">
-        <v>1.033071397338449</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="J22">
-        <v>0.9918147868316272</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="K22">
-        <v>0.9918147868316272</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L22">
-        <v>0.9916862453123849</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="M22">
-        <v>1.012378821325417</v>
+        <v>0.9952806555263156</v>
       </c>
       <c r="N22">
-        <v>1.012378821325417</v>
+        <v>0.9952806555263156</v>
       </c>
       <c r="O22">
-        <v>1.014325553364398</v>
+        <v>0.9944880973684209</v>
       </c>
       <c r="P22">
-        <v>1.00552414316082</v>
+        <v>0.9978404663157893</v>
       </c>
       <c r="Q22">
-        <v>1.00552414316082</v>
+        <v>0.9978404663157893</v>
       </c>
       <c r="R22">
-        <v>1.002096804078522</v>
+        <v>0.9991203717105261</v>
       </c>
       <c r="S22">
-        <v>1.002096804078522</v>
+        <v>0.9991203717105261</v>
       </c>
       <c r="T22">
-        <v>1.000720111452504</v>
+        <v>0.9997575213157894</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.999282435739436</v>
+        <v>1.068374821632422</v>
       </c>
       <c r="D23">
-        <v>1.000904523457336</v>
+        <v>0.9173777296412537</v>
       </c>
       <c r="E23">
-        <v>1.000296024782096</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="F23">
-        <v>1.000324559131633</v>
+        <v>0.9689087623183814</v>
       </c>
       <c r="G23">
-        <v>0.9987123041058847</v>
+        <v>1.124442944769613</v>
       </c>
       <c r="H23">
-        <v>1.000336325498456</v>
+        <v>0.968995417645736</v>
       </c>
       <c r="I23">
-        <v>0.9987123041058847</v>
+        <v>1.124442944769613</v>
       </c>
       <c r="J23">
-        <v>1.000296024782096</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="K23">
-        <v>1.000296024782096</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="L23">
-        <v>1.000336325498456</v>
+        <v>0.968995417645736</v>
       </c>
       <c r="M23">
-        <v>0.9995243148021703</v>
+        <v>1.046719181207674</v>
       </c>
       <c r="N23">
-        <v>0.9995243148021703</v>
+        <v>1.046719181207674</v>
       </c>
       <c r="O23">
-        <v>0.9994436884479255</v>
+        <v>1.053937728015924</v>
       </c>
       <c r="P23">
-        <v>0.9997815514621454</v>
+        <v>1.020712182991924</v>
       </c>
       <c r="Q23">
-        <v>0.9997815514621454</v>
+        <v>1.020712182991924</v>
       </c>
       <c r="R23">
-        <v>0.9999101697921331</v>
+        <v>1.007708683884049</v>
       </c>
       <c r="S23">
-        <v>0.9999101697921331</v>
+        <v>1.007708683884049</v>
       </c>
       <c r="T23">
-        <v>0.9999760287858068</v>
+        <v>1.002799643761305</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9998045610426183</v>
+        <v>1.01821901744236</v>
       </c>
       <c r="D24">
-        <v>1.000220137397194</v>
+        <v>0.9778055018278902</v>
       </c>
       <c r="E24">
-        <v>1.000103377191377</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="F24">
-        <v>1.000089609287539</v>
+        <v>0.9917237199623146</v>
       </c>
       <c r="G24">
-        <v>0.9996364740418495</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="H24">
-        <v>1.000083939203447</v>
+        <v>0.9916862453123849</v>
       </c>
       <c r="I24">
-        <v>0.9996364740418495</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="J24">
-        <v>1.000103377191377</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="K24">
-        <v>1.000103377191377</v>
+        <v>0.9918147868316272</v>
       </c>
       <c r="L24">
-        <v>1.000083939203447</v>
+        <v>0.9916862453123849</v>
       </c>
       <c r="M24">
-        <v>0.9998602066226482</v>
+        <v>1.012378821325417</v>
       </c>
       <c r="N24">
-        <v>0.9998602066226482</v>
+        <v>1.012378821325417</v>
       </c>
       <c r="O24">
-        <v>0.9998416580959715</v>
+        <v>1.014325553364398</v>
       </c>
       <c r="P24">
-        <v>0.9999412634788912</v>
+        <v>1.00552414316082</v>
       </c>
       <c r="Q24">
-        <v>0.9999412634788912</v>
+        <v>1.00552414316082</v>
       </c>
       <c r="R24">
-        <v>0.9999817919070126</v>
+        <v>1.002096804078522</v>
       </c>
       <c r="S24">
-        <v>0.9999817919070126</v>
+        <v>1.002096804078522</v>
       </c>
       <c r="T24">
-        <v>0.9999896830273373</v>
+        <v>1.000720111452504</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9465706614042574</v>
+        <v>0.999282435739436</v>
       </c>
       <c r="D25">
-        <v>1.065425904135564</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="E25">
-        <v>1.023710879888909</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="F25">
-        <v>1.024255608649295</v>
+        <v>1.000324559131633</v>
       </c>
       <c r="G25">
-        <v>0.903179289747316</v>
+        <v>0.9987123041058847</v>
       </c>
       <c r="H25">
-        <v>1.024479788244299</v>
+        <v>1.000336325498456</v>
       </c>
       <c r="I25">
-        <v>0.903179289747316</v>
+        <v>0.9987123041058847</v>
       </c>
       <c r="J25">
-        <v>1.023710879888909</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="K25">
-        <v>1.023710879888909</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="L25">
-        <v>1.024479788244299</v>
+        <v>1.000336325498456</v>
       </c>
       <c r="M25">
-        <v>0.9638295389958074</v>
+        <v>0.9995243148021703</v>
       </c>
       <c r="N25">
-        <v>0.9638295389958074</v>
+        <v>0.9995243148021703</v>
       </c>
       <c r="O25">
-        <v>0.958076579798624</v>
+        <v>0.9994436884479255</v>
       </c>
       <c r="P25">
-        <v>0.9837899859601746</v>
+        <v>0.9997815514621454</v>
       </c>
       <c r="Q25">
-        <v>0.9837899859601745</v>
+        <v>0.9997815514621454</v>
       </c>
       <c r="R25">
-        <v>0.9937702094423582</v>
+        <v>0.9999101697921331</v>
       </c>
       <c r="S25">
-        <v>0.9937702094423582</v>
+        <v>0.9999101697921331</v>
       </c>
       <c r="T25">
-        <v>0.9979370220116067</v>
+        <v>0.9999760287858068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9856398703219604</v>
+        <v>0.9998045610426183</v>
       </c>
       <c r="D26">
-        <v>1.01712833877372</v>
+        <v>1.000220137397194</v>
       </c>
       <c r="E26">
-        <v>1.006768384060493</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="F26">
-        <v>1.00654008781614</v>
+        <v>1.000089609287539</v>
       </c>
       <c r="G26">
-        <v>0.9737550851655731</v>
+        <v>0.9996364740418495</v>
       </c>
       <c r="H26">
-        <v>1.006446150929852</v>
+        <v>1.000083939203447</v>
       </c>
       <c r="I26">
-        <v>0.9737550851655731</v>
+        <v>0.9996364740418495</v>
       </c>
       <c r="J26">
-        <v>1.006768384060493</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="K26">
-        <v>1.006768384060493</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="L26">
-        <v>1.006446150929852</v>
+        <v>1.000083939203447</v>
       </c>
       <c r="M26">
-        <v>0.9901006180477125</v>
+        <v>0.9998602066226482</v>
       </c>
       <c r="N26">
-        <v>0.9901006180477125</v>
+        <v>0.9998602066226482</v>
       </c>
       <c r="O26">
-        <v>0.9886137021391285</v>
+        <v>0.9998416580959715</v>
       </c>
       <c r="P26">
-        <v>0.9956565400519727</v>
+        <v>0.9999412634788912</v>
       </c>
       <c r="Q26">
-        <v>0.9956565400519728</v>
+        <v>0.9999412634788912</v>
       </c>
       <c r="R26">
-        <v>0.9984345010541029</v>
+        <v>0.9999817919070126</v>
       </c>
       <c r="S26">
-        <v>0.9984345010541029</v>
+        <v>0.9999817919070126</v>
       </c>
       <c r="T26">
-        <v>0.9993796528446234</v>
+        <v>0.9999896830273373</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9984679695955437</v>
+        <v>0.9465706614042574</v>
       </c>
       <c r="D27">
-        <v>1.001881449358863</v>
+        <v>1.065425904135564</v>
       </c>
       <c r="E27">
-        <v>1.000675183502722</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="F27">
-        <v>1.000695244007062</v>
+        <v>1.024255608649295</v>
       </c>
       <c r="G27">
-        <v>0.9972263944468246</v>
+        <v>0.903179289747316</v>
       </c>
       <c r="H27">
-        <v>1.000703540764506</v>
+        <v>1.024479788244299</v>
       </c>
       <c r="I27">
-        <v>0.9972263944468246</v>
+        <v>0.903179289747316</v>
       </c>
       <c r="J27">
-        <v>1.000675183502722</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="K27">
-        <v>1.000675183502722</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="L27">
-        <v>1.000703540764506</v>
+        <v>1.024479788244299</v>
       </c>
       <c r="M27">
-        <v>0.9989649676056656</v>
+        <v>0.9638295389958074</v>
       </c>
       <c r="N27">
-        <v>0.9989649676056656</v>
+        <v>0.9638295389958074</v>
       </c>
       <c r="O27">
-        <v>0.9987993016022916</v>
+        <v>0.958076579798624</v>
       </c>
       <c r="P27">
-        <v>0.999535039571351</v>
+        <v>0.9837899859601746</v>
       </c>
       <c r="Q27">
-        <v>0.999535039571351</v>
+        <v>0.9837899859601745</v>
       </c>
       <c r="R27">
-        <v>0.9998200755541938</v>
+        <v>0.9937702094423582</v>
       </c>
       <c r="S27">
-        <v>0.9998200755541938</v>
+        <v>0.9937702094423582</v>
       </c>
       <c r="T27">
-        <v>0.9999416302792538</v>
+        <v>0.9979370220116067</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001549811632463</v>
+        <v>0.9856398703219604</v>
       </c>
       <c r="D28">
-        <v>0.998237370800296</v>
+        <v>1.01712833877372</v>
       </c>
       <c r="E28">
-        <v>0.9991949611581425</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="F28">
-        <v>0.9992902126732478</v>
+        <v>1.00654008781614</v>
       </c>
       <c r="G28">
-        <v>1.002874413228988</v>
+        <v>0.9737550851655731</v>
       </c>
       <c r="H28">
-        <v>0.9993294088065403</v>
+        <v>1.006446150929852</v>
       </c>
       <c r="I28">
-        <v>1.002874413228988</v>
+        <v>0.9737550851655731</v>
       </c>
       <c r="J28">
-        <v>0.9991949611581425</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="K28">
-        <v>0.9991949611581425</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="L28">
-        <v>0.9993294088065403</v>
+        <v>1.006446150929852</v>
       </c>
       <c r="M28">
-        <v>1.001101911017764</v>
+        <v>0.9901006180477125</v>
       </c>
       <c r="N28">
-        <v>1.001101911017764</v>
+        <v>0.9901006180477125</v>
       </c>
       <c r="O28">
-        <v>1.001251211222664</v>
+        <v>0.9886137021391285</v>
       </c>
       <c r="P28">
-        <v>1.000466261064557</v>
+        <v>0.9956565400519727</v>
       </c>
       <c r="Q28">
-        <v>1.000466261064557</v>
+        <v>0.9956565400519728</v>
       </c>
       <c r="R28">
-        <v>1.000148436087953</v>
+        <v>0.9984345010541029</v>
       </c>
       <c r="S28">
-        <v>1.000148436087953</v>
+        <v>0.9984345010541029</v>
       </c>
       <c r="T28">
-        <v>1.000079363049946</v>
+        <v>0.9993796528446234</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9984679695955437</v>
+      </c>
+      <c r="D29">
+        <v>1.001881449358863</v>
+      </c>
+      <c r="E29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="F29">
+        <v>1.000695244007062</v>
+      </c>
+      <c r="G29">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="H29">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="I29">
+        <v>0.9972263944468246</v>
+      </c>
+      <c r="J29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="K29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="L29">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="M29">
+        <v>0.9989649676056656</v>
+      </c>
+      <c r="N29">
+        <v>0.9989649676056656</v>
+      </c>
+      <c r="O29">
+        <v>0.9987993016022916</v>
+      </c>
+      <c r="P29">
+        <v>0.999535039571351</v>
+      </c>
+      <c r="Q29">
+        <v>0.999535039571351</v>
+      </c>
+      <c r="R29">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="S29">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="T29">
+        <v>0.9999416302792538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001549811632463</v>
+      </c>
+      <c r="D30">
+        <v>0.998237370800296</v>
+      </c>
+      <c r="E30">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="F30">
+        <v>0.9992902126732478</v>
+      </c>
+      <c r="G30">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="H30">
+        <v>0.9993294088065403</v>
+      </c>
+      <c r="I30">
+        <v>1.002874413228988</v>
+      </c>
+      <c r="J30">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="K30">
+        <v>0.9991949611581425</v>
+      </c>
+      <c r="L30">
+        <v>0.9993294088065403</v>
+      </c>
+      <c r="M30">
+        <v>1.001101911017764</v>
+      </c>
+      <c r="N30">
+        <v>1.001101911017764</v>
+      </c>
+      <c r="O30">
+        <v>1.001251211222664</v>
+      </c>
+      <c r="P30">
+        <v>1.000466261064557</v>
+      </c>
+      <c r="Q30">
+        <v>1.000466261064557</v>
+      </c>
+      <c r="R30">
+        <v>1.000148436087953</v>
+      </c>
+      <c r="S30">
+        <v>1.000148436087953</v>
+      </c>
+      <c r="T30">
+        <v>1.000079363049946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.006731078535596</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9920514845653239</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9967579196442231</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9969307443228053</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.0123409737376</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9970018749264977</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.0123409737376</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9967579196442231</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9967579196442231</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9970018749264977</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.004671424332049</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.004671424332049</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.005357975733231</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.002033589436107</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.002033589436107</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000714671988136</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000714671988136</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000302345955341</v>
       </c>
     </row>
